--- a/Coronavirus.xlsx
+++ b/Coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C2FB9F-4691-47AE-A684-27A21AD71BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EE6837-7BDF-48D5-8DD0-92B72B0836C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="90" windowWidth="27015" windowHeight="20490" xr2:uid="{832C5FBB-12C0-4EF1-9BA7-BC3595B52E67}"/>
+    <workbookView xWindow="945" yWindow="90" windowWidth="32445" windowHeight="20490" xr2:uid="{832C5FBB-12C0-4EF1-9BA7-BC3595B52E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>France</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_maladie_%C3%A0_coronavirus_de_2020_en_Italie</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_maladie_%C3%A0_coronavirus_de_2020_aux_%C3%89tats-Unis</t>
   </si>
   <si>
     <t>UK</t>
@@ -168,6 +165,15 @@
   </si>
   <si>
     <t>Trois KPI à suivre</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_the_United_States</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>https://coronavirus.jhu.edu/map.html</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,10 +525,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -533,6 +537,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,6 +595,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -692,7 +703,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$83</c:f>
+              <c:f>Feuil1!$E$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -715,10 +726,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$82:$V$82</c:f>
+              <c:f>Feuil1!$F$83:$Y$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -769,16 +780,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$83:$V$83</c:f>
+              <c:f>Feuil1!$F$84:$Y$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.22917235727943186</c:v>
                 </c:pt>
@@ -829,6 +849,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.10892617115547369</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17010101010101011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3251227747084095E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7129972450823841E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +874,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$84</c:f>
+              <c:f>Feuil1!$E$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -868,10 +897,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$82:$V$82</c:f>
+              <c:f>Feuil1!$F$83:$Y$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -922,16 +951,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$84:$V$84</c:f>
+              <c:f>Feuil1!$F$85:$Y$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="0.0%">
                   <c:v>0.2748353096179183</c:v>
                 </c:pt>
@@ -973,6 +1011,12 @@
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0%">
                   <c:v>0.14883654937570942</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0%">
+                  <c:v>8.1614589765756862E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0%">
+                  <c:v>0.1018326450606124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +1033,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$85</c:f>
+              <c:f>Feuil1!$E$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1012,10 +1056,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$82:$V$82</c:f>
+              <c:f>Feuil1!$F$83:$Y$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -1066,16 +1110,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$85:$V$85</c:f>
+              <c:f>Feuil1!$F$86:$Y$86</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.19801812004530012</c:v>
                 </c:pt>
@@ -1126,6 +1179,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.1458096612719958E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9837230560552002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5201905626134305E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2216072494438116E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1204,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$86</c:f>
+              <c:f>Feuil1!$E$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1165,10 +1227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$82:$V$82</c:f>
+              <c:f>Feuil1!$F$83:$Y$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -1219,16 +1281,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$86:$V$86</c:f>
+              <c:f>Feuil1!$F$87:$Y$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="0.00%">
                   <c:v>0.29368709972552609</c:v>
                 </c:pt>
@@ -1248,28 +1319,37 @@
                   <c:v>0.39116452268111035</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>0.32370118019223748</c:v>
+                  <c:v>0.30037109137364643</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>0.23100785881704122</c:v>
+                  <c:v>0.23248578980608642</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.29163166638666443</c:v>
+                  <c:v>0.23203643955209718</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>0.24282452235742982</c:v>
+                  <c:v>0.26264711319243328</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.21704497883622495</c:v>
+                  <c:v>0.23218163628821706</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.19133201479060968</c:v>
+                  <c:v>0.19909502262443438</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.1470814686492469</c:v>
+                  <c:v>0.166657033153049</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>0.11882538017829052</c:v>
+                  <c:v>0.1373152709359606</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00%">
+                  <c:v>0.15802575160714175</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00%">
+                  <c:v>0.14329704108941219</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00%">
+                  <c:v>0.13574339473647101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1366,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$87</c:f>
+              <c:f>Feuil1!$E$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,10 +1389,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$82:$V$82</c:f>
+              <c:f>Feuil1!$F$83:$Y$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -1363,16 +1443,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$87:$V$87</c:f>
+              <c:f>Feuil1!$F$88:$Y$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="2" formatCode="0.0%">
                   <c:v>0.10927390366642703</c:v>
                 </c:pt>
@@ -1417,6 +1506,15 @@
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0%">
                   <c:v>0.13420756070074788</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0%">
+                  <c:v>0.13585042001625869</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0%">
+                  <c:v>0.17192842942345923</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0%">
+                  <c:v>0.14399131437877452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,7 +1531,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$88</c:f>
+              <c:f>Feuil1!$E$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1456,10 +1554,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$82:$V$82</c:f>
+              <c:f>Feuil1!$F$83:$Y$83</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -1510,16 +1608,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$88:$V$88</c:f>
+              <c:f>Feuil1!$F$89:$Y$89</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="1">
                   <c:v>0.18181818181818182</c:v>
                 </c:pt>
@@ -1567,6 +1674,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8.1223427882479854E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10824578907212865</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1754345086160335E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.932560507558549E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,7 +1982,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$93</c:f>
+              <c:f>Feuil1!$E$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1889,10 +2005,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$92:$V$92</c:f>
+              <c:f>Feuil1!$F$93:$Y$93</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -1943,16 +2059,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$93:$V$93</c:f>
+              <c:f>Feuil1!$F$94:$Y$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>8.0817051509769089E-2</c:v>
                 </c:pt>
@@ -2003,6 +2128,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.13559322033898305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13961875321998971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1382953181272509</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13660356752821259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,7 +2153,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$94</c:f>
+              <c:f>Feuil1!$E$95</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2042,10 +2176,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$92:$V$92</c:f>
+              <c:f>Feuil1!$F$93:$Y$93</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -2096,16 +2230,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$94:$V$94</c:f>
+              <c:f>Feuil1!$F$95:$Y$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="4" formatCode="0.0%">
                   <c:v>1.7868538608806637E-2</c:v>
                 </c:pt>
@@ -2141,6 +2284,15 @@
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0%">
                   <c:v>1.7157727593507411E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0%">
+                  <c:v>1.6584050153083538E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0%">
+                  <c:v>1.848212021303576E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0%">
+                  <c:v>2.0050399912347978E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,7 +2309,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$95</c:f>
+              <c:f>Feuil1!$E$96</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2180,10 +2332,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$92:$V$92</c:f>
+              <c:f>Feuil1!$F$93:$Y$93</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -2234,16 +2386,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$95:$V$95</c:f>
+              <c:f>Feuil1!$F$96:$Y$96</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.19538983050847458</c:v>
                 </c:pt>
@@ -2294,6 +2455,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.16755811264022205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1670744494931842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16333701684898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16079455505610188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2480,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$96</c:f>
+              <c:f>Feuil1!$E$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2333,10 +2503,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$92:$V$92</c:f>
+              <c:f>Feuil1!$F$93:$Y$93</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -2387,16 +2557,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$96:$V$96</c:f>
+              <c:f>Feuil1!$F$97:$Y$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3" formatCode="0.0%">
                   <c:v>0.10300429184549356</c:v>
                 </c:pt>
@@ -2416,28 +2595,37 @@
                   <c:v>9.4693504117108876E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0%">
-                  <c:v>9.6888260254596889E-2</c:v>
+                  <c:v>9.1760961810466765E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0%">
-                  <c:v>8.6945751795888038E-2</c:v>
+                  <c:v>8.4344810502848644E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0%">
-                  <c:v>8.7368946580129808E-2</c:v>
+                  <c:v>7.5386919620569148E-2</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0%">
-                  <c:v>7.4549833696524834E-2</c:v>
+                  <c:v>6.6464044041747911E-2</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0%">
-                  <c:v>7.2190250507786047E-2</c:v>
+                  <c:v>6.736628300609343E-2</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0%">
-                  <c:v>6.6674777953522321E-2</c:v>
+                  <c:v>6.2020927120087603E-2</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0%">
-                  <c:v>5.7769198952157728E-2</c:v>
+                  <c:v>5.7355383499801176E-2</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0%">
-                  <c:v>5.5123107651527878E-2</c:v>
+                  <c:v>5.665211615107231E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0%">
+                  <c:v>5.8629613654568979E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0%">
+                  <c:v>5.7889856769880191E-2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0%">
+                  <c:v>5.7635375308177472E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,7 +2642,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$97</c:f>
+              <c:f>Feuil1!$E$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2477,10 +2665,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$92:$V$92</c:f>
+              <c:f>Feuil1!$F$93:$Y$93</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -2531,16 +2719,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$97:$V$97</c:f>
+              <c:f>Feuil1!$F$98:$Y$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="5" formatCode="0.0%">
                   <c:v>0.2440677966101695</c:v>
                 </c:pt>
@@ -2576,6 +2773,15 @@
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0%">
                   <c:v>0.17432214931286369</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0%">
+                  <c:v>0.1877426802392696</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0%">
+                  <c:v>0.2033195020746888</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0%">
+                  <c:v>0.20035667741271693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +2798,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$98</c:f>
+              <c:f>Feuil1!$E$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2615,10 +2821,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$92:$V$92</c:f>
+              <c:f>Feuil1!$F$93:$Y$93</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43904</c:v>
                 </c:pt>
@@ -2669,16 +2875,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$98:$V$98</c:f>
+              <c:f>Feuil1!$F$99:$Y$99</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="1">
                   <c:v>0.23395613322502032</c:v>
                 </c:pt>
@@ -2726,6 +2941,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.18503113262245077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17200168031926066</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16111981205951448</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1561529215254687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,7 +3249,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$104</c:f>
+              <c:f>Feuil1!$E$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3048,10 +3272,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$103:$P$103</c:f>
+              <c:f>Feuil1!$F$104:$S$104</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43910</c:v>
                 </c:pt>
@@ -3084,16 +3308,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$104:$P$104</c:f>
+              <c:f>Feuil1!$F$105:$S$105</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.10805500982318271</c:v>
                 </c:pt>
@@ -3126,6 +3359,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.12043539325842696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13001397999784922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13374601388107296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11983471074380166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,7 +3384,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$105</c:f>
+              <c:f>Feuil1!$E$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3165,10 +3407,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$103:$P$103</c:f>
+              <c:f>Feuil1!$F$104:$S$104</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43910</c:v>
                 </c:pt>
@@ -3201,16 +3443,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$105:$P$105</c:f>
+              <c:f>Feuil1!$F$106:$S$106</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>7.9486395597676545E-3</c:v>
                 </c:pt>
@@ -3243,6 +3494,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.7498267498267498E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8647007805724199E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3094532722865609E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,7 +3516,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$106</c:f>
+              <c:f>Feuil1!$E$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3282,10 +3539,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$103:$P$103</c:f>
+              <c:f>Feuil1!$F$104:$S$104</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43910</c:v>
                 </c:pt>
@@ -3318,16 +3575,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$106:$P$106</c:f>
+              <c:f>Feuil1!$F$107:$S$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.15870873987959311</c:v>
                 </c:pt>
@@ -3360,6 +3626,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.16113588667366213</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14477486154587046</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13684271151298738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12849718013933428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,7 +3651,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$107</c:f>
+              <c:f>Feuil1!$E$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3399,10 +3674,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$103:$P$103</c:f>
+              <c:f>Feuil1!$F$104:$S$104</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43910</c:v>
                 </c:pt>
@@ -3435,16 +3710,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$107:$P$107</c:f>
+              <c:f>Feuil1!$F$108:$S$108</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5.1730844029560484E-2</c:v>
                 </c:pt>
@@ -3455,28 +3739,37 @@
                   <c:v>6.4809855382967324E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4186046511627912E-2</c:v>
+                  <c:v>6.7441860465116285E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6761705466910804E-2</c:v>
+                  <c:v>5.4015171331415118E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3980648446783228E-2</c:v>
+                  <c:v>4.1758614836190797E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8335261601748294E-2</c:v>
+                  <c:v>4.1136392852551745E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8135008150349982E-2</c:v>
+                  <c:v>4.3676287275865373E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3788343558282206E-2</c:v>
+                  <c:v>4.475960968672224E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0549116536958481E-2</c:v>
+                  <c:v>4.449721247160851E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4335591166914481E-2</c:v>
+                  <c:v>4.3476903870162294E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5059288537549404E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7467240772558844E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0472512413461706E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,7 +3786,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$108</c:f>
+              <c:f>Feuil1!$E$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3516,10 +3809,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$103:$P$103</c:f>
+              <c:f>Feuil1!$F$104:$S$104</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43910</c:v>
                 </c:pt>
@@ -3552,16 +3845,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$108:$P$108</c:f>
+              <c:f>Feuil1!$F$109:$S$109</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>8.4112149532710276E-2</c:v>
                 </c:pt>
@@ -3594,6 +3896,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1687467498699948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.156567710451403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17286988618886495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20013227513227513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,7 +3921,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$109</c:f>
+              <c:f>Feuil1!$E$110</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3633,10 +3944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$F$103:$P$103</c:f>
+              <c:f>Feuil1!$F$104:$S$104</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43910</c:v>
                 </c:pt>
@@ -3669,16 +3980,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$109:$P$109</c:f>
+              <c:f>Feuil1!$F$110:$S$110</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.11595189471295667</c:v>
                 </c:pt>
@@ -3711,6 +4031,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.13969719142229978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10818650158015498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1035260352603526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10808507184024678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5556,13 +5885,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5592,13 +5921,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5627,14 +5956,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>646906</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:colOff>646905</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>5556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>611187</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325436</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5960,10 +6289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43171D1-6F1A-4D90-921A-4B3C10CE4324}">
-  <dimension ref="A1:AL181"/>
+  <dimension ref="A1:AY182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Y85" sqref="Y85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,66 +6328,66 @@
     <col min="38" max="38" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64"/>
+    <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -6186,13 +6515,13 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="4">
         <v>1126</v>
@@ -6266,132 +6595,138 @@
       <c r="AA5" s="4">
         <v>52128</v>
       </c>
-      <c r="AB5" s="8">
-        <f t="shared" ref="AB5" si="2">AA5*(1+$C5)</f>
-        <v>57340.800000000003</v>
-      </c>
-      <c r="AC5" s="8">
-        <f t="shared" ref="AC5" si="3">AB5*(1+$C5)</f>
-        <v>63074.880000000005</v>
+      <c r="AB5" s="4">
+        <v>56989</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>59105</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" ref="AD5" si="4">AC5*(1+$C5)</f>
-        <v>69382.368000000017</v>
+        <f t="shared" ref="AD5" si="2">AC5*(1+$C5)</f>
+        <v>63833.4</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" ref="AE5" si="5">AD5*(1+$C5)</f>
-        <v>76320.60480000003</v>
+        <f t="shared" ref="AE5" si="3">AD5*(1+$C5)</f>
+        <v>68940.072</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" ref="AF5" si="6">AE5*(1+$C5)</f>
-        <v>83952.665280000045</v>
+        <f t="shared" ref="AF5" si="4">AE5*(1+$C5)</f>
+        <v>74455.277760000012</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" ref="AG5" si="7">AF5*(1+$C5)</f>
-        <v>92347.931808000052</v>
+        <f t="shared" ref="AG5" si="5">AF5*(1+$C5)</f>
+        <v>80411.699980800011</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26">
-        <f t="shared" ref="E6:AA6" si="8">(E5-D5)/D5</f>
+        <f t="shared" ref="E6:AC6" si="6">(E5-D5)/D5</f>
         <v>0.25399644760213141</v>
       </c>
       <c r="F6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.26345609065155806</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.27858744394618834</v>
       </c>
       <c r="H6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.26172731258220078</v>
       </c>
       <c r="I6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.27206393328700484</v>
       </c>
       <c r="J6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.22917235727943186</v>
       </c>
       <c r="K6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.20511111111111111</v>
       </c>
       <c r="L6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.2231237322515213</v>
       </c>
       <c r="M6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.1653851952359415</v>
       </c>
       <c r="N6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.1816300129366106</v>
       </c>
       <c r="O6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.20374425224436171</v>
       </c>
       <c r="P6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14706684856753069</v>
       </c>
       <c r="Q6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14644782746590548</v>
       </c>
       <c r="R6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.154229199806349</v>
       </c>
       <c r="S6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.18976571394331596</v>
       </c>
       <c r="T6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.12318694601128123</v>
       </c>
       <c r="U6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13142319074522466</v>
       </c>
       <c r="V6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.1554313795426624</v>
       </c>
       <c r="W6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13064654433201853</v>
       </c>
       <c r="X6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13987986894794321</v>
       </c>
       <c r="Y6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.9168330006653359E-2</v>
       </c>
       <c r="Z6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10892617115547369</v>
       </c>
       <c r="AA6" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.17010101010101011</v>
       </c>
+      <c r="AB6" s="26">
+        <f t="shared" si="6"/>
+        <v>9.3251227747084095E-2</v>
+      </c>
+      <c r="AC6" s="26">
+        <f t="shared" si="6"/>
+        <v>3.7129972450823841E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -6469,138 +6804,144 @@
       <c r="AA7" s="4">
         <v>3523</v>
       </c>
-      <c r="AB7" s="10">
-        <f t="shared" ref="AB7" si="9">V5*$C9</f>
-        <v>4081.7000000000003</v>
-      </c>
-      <c r="AC7" s="10">
-        <f t="shared" ref="AC7" si="10">W5*$C9</f>
-        <v>4614.96</v>
+      <c r="AB7" s="4">
+        <v>4032</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>4503</v>
       </c>
       <c r="AD7" s="10">
-        <f t="shared" ref="AD7" si="11">X5*$C9</f>
-        <v>5260.5000000000009</v>
+        <f t="shared" ref="AD7" si="7">X5*$C9</f>
+        <v>4884.75</v>
       </c>
       <c r="AE7" s="10">
-        <f t="shared" ref="AE7" si="12">Y5*$C9</f>
-        <v>5624.3600000000006</v>
+        <f t="shared" ref="AE7" si="8">Y5*$C9</f>
+        <v>5222.62</v>
       </c>
       <c r="AF7" s="10">
-        <f t="shared" ref="AF7" si="13">Z5*$C9</f>
-        <v>6237.0000000000009</v>
+        <f t="shared" ref="AF7" si="9">Z5*$C9</f>
+        <v>5791.5</v>
       </c>
       <c r="AG7" s="10">
-        <f t="shared" ref="AG7" si="14">AA5*$C9</f>
-        <v>7297.920000000001</v>
+        <f t="shared" ref="AG7" si="10">AA5*$C9</f>
+        <v>6776.64</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="9">
-        <f t="shared" ref="E8:AA8" si="15">(E7-D7)/D7</f>
+        <f t="shared" ref="E8:AC8" si="11">(E7-D7)/D7</f>
         <v>0.31578947368421051</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.32</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.27083333333333331</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.29508196721311475</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.15189873417721519</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.39560439560439559</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.16535433070866143</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.18243243243243243</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.50857142857142856</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.20967741935483872</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.24888888888888888</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.199288256227758</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.27596439169139464</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.27906976744186046</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.21</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.2742299023290759</v>
       </c>
       <c r="W8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.17629716981132076</v>
       </c>
       <c r="X8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.1598997493734336</v>
       </c>
       <c r="Y8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.12618841832324978</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.16039907904834996</v>
       </c>
       <c r="AA8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.1650132275132275</v>
       </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="11"/>
+        <v>0.14447913709906329</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="11"/>
+        <v>0.11681547619047619</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="9"/>
@@ -6611,291 +6952,322 @@
         <v>9</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" ref="J9:AA9" si="16">J7/D5</f>
+        <f t="shared" ref="J9:AC9" si="12">J7/D5</f>
         <v>8.0817051509769089E-2</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>8.9943342776203972E-2</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>8.2959641255605385E-2</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>7.672073651907059E-2</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.1730368311327304E-2</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.10161158153509969</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="Q9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.10363267564078923</v>
       </c>
       <c r="R9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.10161314638926579</v>
       </c>
       <c r="S9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.11125485122897801</v>
       </c>
       <c r="T9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.1204291657543245</v>
       </c>
       <c r="U9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.12105502501136881</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.13447510307643515</v>
       </c>
       <c r="W9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.13797634691195795</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.13865420336748757</v>
       </c>
       <c r="Y9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.13124496373892022</v>
       </c>
       <c r="Z9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.13559322033898305</v>
       </c>
       <c r="AA9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.13961875321998971</v>
       </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="12"/>
+        <v>0.1382953181272509</v>
+      </c>
+      <c r="AC9" s="11">
+        <f t="shared" si="12"/>
+        <v>0.13660356752821259</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="B10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40">
+      <c r="J10" s="34"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38">
         <f>(L7-I7)/(G5-D5)</f>
         <v>5.9740259740259739E-2</v>
       </c>
-      <c r="M10" s="40">
-        <f t="shared" ref="M10:AA10" si="17">(M7-J7)/(H5-E5)</f>
+      <c r="M10" s="38">
+        <f t="shared" ref="M10:AC10" si="13">(M7-J7)/(H5-E5)</f>
         <v>5.7298772169167803E-2</v>
       </c>
-      <c r="N10" s="40">
-        <f t="shared" si="17"/>
+      <c r="N10" s="38">
+        <f t="shared" si="13"/>
         <v>7.2988811933937137E-2</v>
       </c>
-      <c r="O10" s="40">
-        <f t="shared" si="17"/>
+      <c r="O10" s="38">
+        <f t="shared" si="13"/>
         <v>0.10094637223974763</v>
       </c>
-      <c r="P10" s="40">
-        <f t="shared" si="17"/>
+      <c r="P10" s="38">
+        <f t="shared" si="13"/>
         <v>0.10805500982318271</v>
       </c>
-      <c r="Q10" s="40">
-        <f t="shared" si="17"/>
+      <c r="Q10" s="38">
+        <f t="shared" si="13"/>
         <v>0.10026917900403769</v>
       </c>
-      <c r="R10" s="40">
-        <f t="shared" si="17"/>
+      <c r="R10" s="38">
+        <f t="shared" si="13"/>
         <v>9.3498452012383895E-2</v>
       </c>
-      <c r="S10" s="40">
-        <f t="shared" si="17"/>
+      <c r="S10" s="38">
+        <f t="shared" si="13"/>
         <v>0.11048234977095123</v>
       </c>
-      <c r="T10" s="40">
-        <f t="shared" si="17"/>
+      <c r="T10" s="38">
+        <f t="shared" si="13"/>
         <v>0.12333791838606144</v>
       </c>
-      <c r="U10" s="40">
-        <f t="shared" si="17"/>
+      <c r="U10" s="38">
+        <f t="shared" si="13"/>
         <v>0.13457599344530929</v>
       </c>
-      <c r="V10" s="40">
-        <f t="shared" si="17"/>
+      <c r="V10" s="38">
+        <f t="shared" si="13"/>
         <v>0.15699530516431925</v>
       </c>
-      <c r="W10" s="40">
-        <f t="shared" si="17"/>
+      <c r="W10" s="38">
+        <f t="shared" si="13"/>
         <v>0.15718299964875307</v>
       </c>
-      <c r="X10" s="40">
-        <f t="shared" si="17"/>
+      <c r="X10" s="38">
+        <f t="shared" si="13"/>
         <v>0.13569850911098841</v>
       </c>
-      <c r="Y10" s="40">
-        <f t="shared" si="17"/>
+      <c r="Y10" s="38">
+        <f t="shared" si="13"/>
         <v>0.11602703047303328</v>
       </c>
-      <c r="Z10" s="40">
-        <f t="shared" si="17"/>
+      <c r="Z10" s="38">
+        <f t="shared" si="13"/>
         <v>0.12043539325842696</v>
       </c>
-      <c r="AA10" s="40">
-        <f t="shared" si="17"/>
+      <c r="AA10" s="38">
+        <f t="shared" si="13"/>
         <v>0.13001397999784922</v>
       </c>
+      <c r="AB10" s="38">
+        <f t="shared" si="13"/>
+        <v>0.13374601388107296</v>
+      </c>
+      <c r="AC10" s="38">
+        <f t="shared" si="13"/>
+        <v>0.11983471074380166</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37">
-        <f t="shared" ref="P11:AA11" si="18">P7-O7</f>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35">
+        <f t="shared" ref="P11:AA11" si="14">P7-O7</f>
         <v>78</v>
       </c>
-      <c r="Q11" s="37">
-        <f t="shared" si="18"/>
+      <c r="Q11" s="35">
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
-      <c r="R11" s="37">
-        <f t="shared" si="18"/>
+      <c r="R11" s="35">
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
-      <c r="S11" s="37">
-        <f t="shared" si="18"/>
+      <c r="S11" s="35">
+        <f t="shared" si="14"/>
         <v>186</v>
       </c>
-      <c r="T11" s="37">
-        <f t="shared" si="18"/>
+      <c r="T11" s="35">
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="U11" s="37">
-        <f t="shared" si="18"/>
+      <c r="U11" s="35">
+        <f t="shared" si="14"/>
         <v>231</v>
       </c>
-      <c r="V11" s="37">
-        <f t="shared" si="18"/>
+      <c r="V11" s="35">
+        <f t="shared" si="14"/>
         <v>365</v>
       </c>
-      <c r="W11" s="37">
-        <f t="shared" si="18"/>
+      <c r="W11" s="35">
+        <f t="shared" si="14"/>
         <v>299</v>
       </c>
-      <c r="X11" s="37">
-        <f t="shared" si="18"/>
+      <c r="X11" s="35">
+        <f t="shared" si="14"/>
         <v>319</v>
       </c>
-      <c r="Y11" s="37">
-        <f t="shared" si="18"/>
+      <c r="Y11" s="35">
+        <f t="shared" si="14"/>
         <v>292</v>
       </c>
-      <c r="Z11" s="37">
-        <f t="shared" si="18"/>
+      <c r="Z11" s="35">
+        <f t="shared" si="14"/>
         <v>418</v>
       </c>
-      <c r="AA11" s="37">
-        <f t="shared" si="18"/>
+      <c r="AA11" s="35">
+        <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="AB11" s="37">
-        <f t="shared" ref="AB11:AG11" si="19">AB7-AA7</f>
-        <v>558.70000000000027</v>
-      </c>
-      <c r="AC11" s="37">
-        <f t="shared" si="19"/>
-        <v>533.25999999999976</v>
-      </c>
-      <c r="AD11" s="37">
-        <f t="shared" si="19"/>
-        <v>645.54000000000087</v>
-      </c>
-      <c r="AE11" s="37">
-        <f t="shared" si="19"/>
-        <v>363.85999999999967</v>
-      </c>
-      <c r="AF11" s="37">
-        <f t="shared" si="19"/>
-        <v>612.64000000000033</v>
-      </c>
-      <c r="AG11" s="37">
-        <f t="shared" si="19"/>
-        <v>1060.92</v>
+      <c r="AB11" s="35">
+        <f t="shared" ref="AB11:AG11" si="15">AB7-AA7</f>
+        <v>509</v>
+      </c>
+      <c r="AC11" s="35">
+        <f t="shared" si="15"/>
+        <v>471</v>
+      </c>
+      <c r="AD11" s="35">
+        <f t="shared" si="15"/>
+        <v>381.75</v>
+      </c>
+      <c r="AE11" s="35">
+        <f t="shared" si="15"/>
+        <v>337.86999999999989</v>
+      </c>
+      <c r="AF11" s="35">
+        <f t="shared" si="15"/>
+        <v>568.88000000000011</v>
+      </c>
+      <c r="AG11" s="35">
+        <f t="shared" si="15"/>
+        <v>985.14000000000033</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -6906,144 +7278,164 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:K14" si="20">G14-1</f>
+        <f t="shared" ref="F14:K14" si="16">G14-1</f>
         <v>43889</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>43890</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>43891</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>43892</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>43893</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>43894</v>
       </c>
       <c r="L14" s="13">
         <v>43895</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" ref="M14:AL14" si="21">L14+1</f>
+        <f t="shared" ref="M14:AQ14" si="17">L14+1</f>
         <v>43896</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43897</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43898</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43899</v>
       </c>
       <c r="Q14" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43900</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43901</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43902</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43903</v>
       </c>
       <c r="U14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43904</v>
       </c>
       <c r="V14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43905</v>
       </c>
       <c r="W14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43906</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43907</v>
       </c>
       <c r="Y14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43908</v>
       </c>
       <c r="Z14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43909</v>
       </c>
       <c r="AA14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43910</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43911</v>
       </c>
       <c r="AC14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43912</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43913</v>
       </c>
       <c r="AE14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43914</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43915</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43916</v>
       </c>
       <c r="AH14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43917</v>
       </c>
       <c r="AI14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43918</v>
       </c>
       <c r="AJ14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43919</v>
       </c>
       <c r="AK14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43920</v>
       </c>
       <c r="AL14" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>43921</v>
       </c>
+      <c r="AM14" s="13">
+        <f t="shared" si="17"/>
+        <v>43922</v>
+      </c>
+      <c r="AN14" s="13">
+        <f t="shared" si="17"/>
+        <v>43923</v>
+      </c>
+      <c r="AO14" s="13">
+        <f t="shared" si="17"/>
+        <v>43924</v>
+      </c>
+      <c r="AP14" s="13">
+        <f t="shared" si="17"/>
+        <v>43925</v>
+      </c>
+      <c r="AQ14" s="13">
+        <f t="shared" si="17"/>
+        <v>43926</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -7144,11 +7536,29 @@
       <c r="AL15" s="18">
         <v>105792</v>
       </c>
+      <c r="AM15" s="18">
+        <v>110574</v>
+      </c>
+      <c r="AN15" s="18">
+        <v>115242</v>
+      </c>
+      <c r="AO15" s="10">
+        <f t="shared" ref="AO15" si="18">AN15*(1+$C15)</f>
+        <v>119851.68000000001</v>
+      </c>
+      <c r="AP15" s="10">
+        <f t="shared" ref="AP15" si="19">AO15*(1+$C15)</f>
+        <v>124645.74720000001</v>
+      </c>
+      <c r="AQ15" s="10">
+        <f t="shared" ref="AQ15" si="20">AP15*(1+$C15)</f>
+        <v>129631.57708800002</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -7156,131 +7566,139 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26">
-        <f t="shared" ref="H16:V16" si="22">(H15-G15)/G15</f>
+        <f t="shared" ref="H16:V16" si="21">(H15-G15)/G15</f>
         <v>0.37947882736156352</v>
       </c>
       <c r="I16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.20188902007083825</v>
+      </c>
+      <c r="J16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.22888015717092339</v>
+      </c>
+      <c r="K16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.2346123101518785</v>
+      </c>
+      <c r="L16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.24894787957267725</v>
+      </c>
+      <c r="M16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.20165889061689996</v>
+      </c>
+      <c r="N16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.26898188093183778</v>
+      </c>
+      <c r="O16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.25361210266870643</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.24366101694915254</v>
+      </c>
+      <c r="Q16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.10651984300043611</v>
+      </c>
+      <c r="R16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.2281012907675633</v>
+      </c>
+      <c r="S16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.21253209242618742</v>
+      </c>
+      <c r="T16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.16853040428769933</v>
+      </c>
+      <c r="U16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.19801812004530012</v>
+      </c>
+      <c r="V16" s="26">
+        <f t="shared" si="21"/>
+        <v>0.16968379259819444</v>
+      </c>
+      <c r="W16" s="26">
+        <f t="shared" ref="W16:AN16" si="22">(W15-V15)/V15</f>
+        <v>0.13064209803208471</v>
+      </c>
+      <c r="X16" s="26">
         <f t="shared" si="22"/>
-        <v>0.20188902007083825</v>
-      </c>
-      <c r="J16" s="26">
+        <v>0.12601858470335955</v>
+      </c>
+      <c r="Y16" s="26">
         <f t="shared" si="22"/>
-        <v>0.22888015717092339</v>
-      </c>
-      <c r="K16" s="26">
+        <v>0.13353012124674665</v>
+      </c>
+      <c r="Z16" s="26">
         <f t="shared" si="22"/>
-        <v>0.2346123101518785</v>
-      </c>
-      <c r="L16" s="26">
+        <v>0.14902136476913169</v>
+      </c>
+      <c r="AA16" s="26">
         <f t="shared" si="22"/>
-        <v>0.24894787957267725</v>
-      </c>
-      <c r="M16" s="26">
+        <v>0.14587547215791397</v>
+      </c>
+      <c r="AB16" s="26">
         <f t="shared" si="22"/>
-        <v>0.20165889061689996</v>
-      </c>
-      <c r="N16" s="26">
+        <v>0.1394483315965207</v>
+      </c>
+      <c r="AC16" s="26">
         <f t="shared" si="22"/>
-        <v>0.26898188093183778</v>
-      </c>
-      <c r="O16" s="26">
+        <v>0.10377393706372018</v>
+      </c>
+      <c r="AD16" s="26">
         <f t="shared" si="22"/>
-        <v>0.25361210266870643</v>
-      </c>
-      <c r="P16" s="26">
+        <v>8.0980080489702053E-2</v>
+      </c>
+      <c r="AE16" s="26">
         <f t="shared" si="22"/>
-        <v>0.24366101694915254</v>
-      </c>
-      <c r="Q16" s="26">
+        <v>8.2109280898524886E-2</v>
+      </c>
+      <c r="AF16" s="26">
         <f t="shared" si="22"/>
-        <v>0.10651984300043611</v>
-      </c>
-      <c r="R16" s="26">
+        <v>7.5315138198219042E-2</v>
+      </c>
+      <c r="AG16" s="26">
         <f t="shared" si="22"/>
-        <v>0.2281012907675633</v>
-      </c>
-      <c r="S16" s="26">
+        <v>8.2717177963595304E-2</v>
+      </c>
+      <c r="AH16" s="26">
         <f t="shared" si="22"/>
-        <v>0.21253209242618742</v>
-      </c>
-      <c r="T16" s="26">
+        <v>7.4498069258371727E-2</v>
+      </c>
+      <c r="AI16" s="26">
         <f t="shared" si="22"/>
-        <v>0.16853040428769933</v>
-      </c>
-      <c r="U16" s="26">
+        <v>6.855868452374074E-2</v>
+      </c>
+      <c r="AJ16" s="26">
         <f t="shared" si="22"/>
-        <v>0.19801812004530012</v>
-      </c>
-      <c r="V16" s="26">
+        <v>5.6417077601868676E-2</v>
+      </c>
+      <c r="AK16" s="26">
         <f t="shared" si="22"/>
-        <v>0.16968379259819444</v>
-      </c>
-      <c r="W16" s="26">
-        <f t="shared" ref="W16:AL16" si="23">(W15-V15)/V15</f>
-        <v>0.13064209803208471</v>
-      </c>
-      <c r="X16" s="26">
-        <f t="shared" si="23"/>
-        <v>0.12601858470335955</v>
-      </c>
-      <c r="Y16" s="26">
-        <f t="shared" si="23"/>
-        <v>0.13353012124674665</v>
-      </c>
-      <c r="Z16" s="26">
-        <f t="shared" si="23"/>
-        <v>0.14902136476913169</v>
-      </c>
-      <c r="AA16" s="26">
-        <f t="shared" si="23"/>
-        <v>0.14587547215791397</v>
-      </c>
-      <c r="AB16" s="26">
-        <f t="shared" si="23"/>
-        <v>0.1394483315965207</v>
-      </c>
-      <c r="AC16" s="26">
-        <f t="shared" si="23"/>
-        <v>0.10377393706372018</v>
-      </c>
-      <c r="AD16" s="26">
-        <f t="shared" si="23"/>
-        <v>8.0980080489702053E-2</v>
-      </c>
-      <c r="AE16" s="26">
-        <f t="shared" si="23"/>
-        <v>8.2109280898524886E-2</v>
-      </c>
-      <c r="AF16" s="26">
-        <f t="shared" si="23"/>
-        <v>7.5315138198219042E-2</v>
-      </c>
-      <c r="AG16" s="26">
-        <f t="shared" si="23"/>
-        <v>8.2717177963595304E-2</v>
-      </c>
-      <c r="AH16" s="26">
-        <f t="shared" si="23"/>
-        <v>7.4498069258371727E-2</v>
-      </c>
-      <c r="AI16" s="26">
-        <f t="shared" si="23"/>
-        <v>6.855868452374074E-2</v>
-      </c>
-      <c r="AJ16" s="26">
-        <f t="shared" si="23"/>
-        <v>5.6417077601868676E-2</v>
-      </c>
-      <c r="AK16" s="26">
-        <f t="shared" si="23"/>
         <v>4.1458096612719958E-2</v>
       </c>
       <c r="AL16" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.9837230560552002E-2</v>
       </c>
+      <c r="AM16" s="26">
+        <f t="shared" si="22"/>
+        <v>4.5201905626134305E-2</v>
+      </c>
+      <c r="AN16" s="26">
+        <f t="shared" si="22"/>
+        <v>4.2216072494438116E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -7383,13 +7801,31 @@
         <v>11591</v>
       </c>
       <c r="AL17" s="19">
-        <v>11591</v>
+        <v>12428</v>
+      </c>
+      <c r="AM17" s="19">
+        <v>13155</v>
+      </c>
+      <c r="AN17" s="19">
+        <v>13915</v>
+      </c>
+      <c r="AO17" s="10">
+        <f t="shared" ref="AN17:AQ17" si="23">AI15*$C19</f>
+        <v>14795.52</v>
+      </c>
+      <c r="AP17" s="10">
+        <f t="shared" si="23"/>
+        <v>15630.24</v>
+      </c>
+      <c r="AQ17" s="10">
+        <f t="shared" si="23"/>
+        <v>16278.24</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7397,7 +7833,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="9">
-        <f t="shared" ref="H18:AL18" si="24">(H17-G17)/G17</f>
+        <f t="shared" ref="H18:AN18" si="24">(H17-G17)/G17</f>
         <v>0.38095238095238093</v>
       </c>
       <c r="I18" s="9">
@@ -7518,16 +7954,24 @@
       </c>
       <c r="AL18" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7.2211198343542407E-2</v>
+      </c>
+      <c r="AM18" s="9">
+        <f t="shared" si="24"/>
+        <v>5.8496942388155775E-2</v>
+      </c>
+      <c r="AN18" s="9">
+        <f t="shared" si="24"/>
+        <v>5.7772709996199163E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7539,7 +7983,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="15">
-        <f t="shared" ref="M19:AL19" si="25">M17/G15</f>
+        <f t="shared" ref="M19:AN19" si="25">M17/G15</f>
         <v>0.16042345276872963</v>
       </c>
       <c r="N19" s="15">
@@ -7640,15 +8084,23 @@
       </c>
       <c r="AL19" s="15">
         <f t="shared" si="25"/>
-        <v>0.15582233215927729</v>
+        <v>0.1670744494931842</v>
+      </c>
+      <c r="AM19" s="15">
+        <f t="shared" si="25"/>
+        <v>0.16333701684898</v>
+      </c>
+      <c r="AN19" s="15">
+        <f t="shared" si="25"/>
+        <v>0.16079455505610188</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="35"/>
+      <c r="B20" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -7658,100 +8110,108 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="40">
-        <f t="shared" ref="Q20:AL20" si="26">(Q17-N17)/(L15-I15)</f>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="38">
+        <f t="shared" ref="Q20:AN20" si="26">(Q17-N17)/(L15-I15)</f>
         <v>0.21844127332601537</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="38">
         <f t="shared" si="26"/>
         <v>0.21602624179943766</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="38">
         <f t="shared" si="26"/>
         <v>0.19792412312097352</v>
       </c>
-      <c r="T20" s="40">
+      <c r="T20" s="38">
         <f t="shared" si="26"/>
         <v>0.16917827694057436</v>
       </c>
-      <c r="U20" s="40">
+      <c r="U20" s="38">
         <f t="shared" si="26"/>
         <v>0.1353615520282187</v>
       </c>
-      <c r="V20" s="40">
+      <c r="V20" s="38">
         <f t="shared" si="26"/>
         <v>0.18588842006563525</v>
       </c>
-      <c r="W20" s="40">
+      <c r="W20" s="38">
         <f t="shared" si="26"/>
         <v>0.18314010611122028</v>
       </c>
-      <c r="X20" s="40">
+      <c r="X20" s="38">
         <f t="shared" si="26"/>
         <v>0.17875778488469954</v>
       </c>
-      <c r="Y20" s="40">
+      <c r="Y20" s="38">
         <f t="shared" si="26"/>
         <v>0.15563839701770738</v>
       </c>
-      <c r="Z20" s="40">
+      <c r="Z20" s="38">
         <f t="shared" si="26"/>
         <v>0.14344875186932013</v>
       </c>
-      <c r="AA20" s="40">
+      <c r="AA20" s="38">
         <f t="shared" si="26"/>
         <v>0.15870873987959311</v>
       </c>
-      <c r="AB20" s="40">
+      <c r="AB20" s="38">
         <f t="shared" si="26"/>
         <v>0.17897286821705427</v>
       </c>
-      <c r="AC20" s="40">
+      <c r="AC20" s="38">
         <f t="shared" si="26"/>
         <v>0.20011595323219636</v>
       </c>
-      <c r="AD20" s="40">
+      <c r="AD20" s="38">
         <f t="shared" si="26"/>
         <v>0.18648550063833669</v>
       </c>
-      <c r="AE20" s="40">
+      <c r="AE20" s="38">
         <f t="shared" si="26"/>
         <v>0.15281501340482573</v>
       </c>
-      <c r="AF20" s="40">
+      <c r="AF20" s="38">
         <f t="shared" si="26"/>
         <v>0.13064776023203351</v>
       </c>
-      <c r="AG20" s="40">
+      <c r="AG20" s="38">
         <f t="shared" si="26"/>
         <v>0.11687657430730479</v>
       </c>
-      <c r="AH20" s="40">
+      <c r="AH20" s="38">
         <f t="shared" si="26"/>
         <v>0.12782411754957743</v>
       </c>
-      <c r="AI20" s="40">
+      <c r="AI20" s="38">
         <f t="shared" si="26"/>
         <v>0.14905950550100555</v>
       </c>
-      <c r="AJ20" s="40">
+      <c r="AJ20" s="38">
         <f t="shared" si="26"/>
         <v>0.1675855878958841</v>
       </c>
-      <c r="AK20" s="40">
+      <c r="AK20" s="38">
         <f t="shared" si="26"/>
         <v>0.16113588667366213</v>
       </c>
-      <c r="AL20" s="40">
+      <c r="AL20" s="38">
         <f t="shared" si="26"/>
-        <v>9.438959788104985E-2</v>
+        <v>0.14477486154587046</v>
+      </c>
+      <c r="AM20" s="38">
+        <f t="shared" si="26"/>
+        <v>0.13684271151298738</v>
+      </c>
+      <c r="AN20" s="38">
+        <f t="shared" si="26"/>
+        <v>0.12849718013933428</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -7761,7 +8221,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -7814,7 +8274,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>1</v>
@@ -7854,10 +8314,10 @@
         <v>80651</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -7899,7 +8359,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -7937,10 +8397,10 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7982,49 +8442,49 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -8140,7 +8600,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>1</v>
@@ -8185,141 +8645,152 @@
         <v>32876</v>
       </c>
       <c r="P30" s="4">
-        <v>43518</v>
+        <v>42751</v>
       </c>
       <c r="Q30" s="4">
-        <v>53571</v>
+        <v>52690</v>
       </c>
       <c r="R30" s="4">
-        <v>69194</v>
+        <v>64916</v>
       </c>
       <c r="S30" s="4">
-        <v>85996</v>
+        <v>81966</v>
       </c>
       <c r="T30" s="4">
-        <v>104661</v>
+        <v>100997</v>
       </c>
       <c r="U30" s="4">
-        <v>124686</v>
+        <v>121105</v>
       </c>
       <c r="V30" s="4">
-        <v>143025</v>
+        <v>141288</v>
       </c>
       <c r="W30" s="4">
-        <v>160020</v>
-      </c>
-      <c r="X30" s="8">
-        <f t="shared" ref="X30" si="36">W30*(1+$C30)</f>
-        <v>188823.59999999998</v>
-      </c>
-      <c r="Y30" s="49">
-        <f t="shared" ref="Y30" si="37">X30*(1+$C30)</f>
-        <v>222811.84799999997</v>
-      </c>
-      <c r="Z30" s="49">
-        <f t="shared" ref="Z30" si="38">Y30*(1+$C30)</f>
-        <v>262917.98063999997</v>
-      </c>
-      <c r="AA30" s="49">
-        <f t="shared" ref="AA30" si="39">Z30*(1+$C30)</f>
-        <v>310243.21715519996</v>
-      </c>
-      <c r="AB30" s="49">
-        <f t="shared" ref="AB30" si="40">AA30*(1+$C30)</f>
-        <v>366086.99624313595</v>
-      </c>
-      <c r="AC30" s="49">
-        <f t="shared" ref="AC30" si="41">AB30*(1+$C30)</f>
-        <v>431982.65556690039</v>
-      </c>
-      <c r="AD30" s="49">
-        <f t="shared" ref="AD30" si="42">AC30*(1+$C30)</f>
-        <v>509739.53356894245</v>
+        <v>160689</v>
+      </c>
+      <c r="X30" s="4">
+        <v>186082</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>212747</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>241626</v>
+      </c>
+      <c r="AA30" s="48">
+        <f t="shared" ref="AA30" si="36">Z30*(1+$C30)</f>
+        <v>285118.68</v>
+      </c>
+      <c r="AB30" s="48">
+        <f t="shared" ref="AB30" si="37">AA30*(1+$C30)</f>
+        <v>336440.04239999998</v>
+      </c>
+      <c r="AC30" s="48">
+        <f t="shared" ref="AC30" si="38">AB30*(1+$C30)</f>
+        <v>396999.25003199995</v>
+      </c>
+      <c r="AD30" s="48">
+        <f t="shared" ref="AD30" si="39">AC30*(1+$C30)</f>
+        <v>468459.11503775994</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="9">
-        <f t="shared" ref="E31:R31" si="43">(E30-D30)/D30</f>
+    <row r="31" spans="1:43" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26">
+        <f t="shared" ref="E31:R31" si="40">(E30-D30)/D30</f>
         <v>0.29077253218884119</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" si="43"/>
+      <c r="F31" s="26">
+        <f t="shared" si="40"/>
         <v>0.32834580216126352</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" si="43"/>
+      <c r="G31" s="26">
+        <f t="shared" si="40"/>
         <v>0.20275344180225283</v>
       </c>
-      <c r="H31" s="9">
-        <f t="shared" si="43"/>
+      <c r="H31" s="26">
+        <f t="shared" si="40"/>
         <v>0.96357960457856395</v>
       </c>
-      <c r="I31" s="9">
-        <f t="shared" si="43"/>
+      <c r="I31" s="26">
+        <f t="shared" si="40"/>
         <v>0.1584525702172761</v>
       </c>
-      <c r="J31" s="9">
-        <f t="shared" si="43"/>
+      <c r="J31" s="26">
+        <f t="shared" si="40"/>
         <v>0.29368709972552609</v>
       </c>
-      <c r="K31" s="9">
-        <f t="shared" si="43"/>
+      <c r="K31" s="26">
+        <f t="shared" si="40"/>
         <v>0.42751060820367753</v>
       </c>
-      <c r="L31" s="9">
-        <f t="shared" si="43"/>
+      <c r="L31" s="26">
+        <f t="shared" si="40"/>
         <v>0.48848154570225416</v>
       </c>
-      <c r="M31" s="9">
-        <f t="shared" si="43"/>
+      <c r="M31" s="26">
+        <f t="shared" si="40"/>
         <v>0.45099018139457481</v>
       </c>
-      <c r="N31" s="9">
-        <f t="shared" si="43"/>
+      <c r="N31" s="26">
+        <f t="shared" si="40"/>
         <v>0.3552012845509806</v>
       </c>
-      <c r="O31" s="9">
-        <f t="shared" si="43"/>
+      <c r="O31" s="26">
+        <f t="shared" si="40"/>
         <v>0.39116452268111035</v>
       </c>
-      <c r="P31" s="9">
-        <f t="shared" si="43"/>
-        <v>0.32370118019223748</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="shared" si="43"/>
-        <v>0.23100785881704122</v>
-      </c>
-      <c r="R31" s="9">
-        <f t="shared" si="43"/>
-        <v>0.29163166638666443</v>
-      </c>
-      <c r="S31" s="9">
-        <f t="shared" ref="S31" si="44">(S30-R30)/R30</f>
-        <v>0.24282452235742982</v>
-      </c>
-      <c r="T31" s="9">
-        <f t="shared" ref="T31:W31" si="45">(T30-S30)/S30</f>
-        <v>0.21704497883622495</v>
-      </c>
-      <c r="U31" s="9">
-        <f t="shared" si="45"/>
-        <v>0.19133201479060968</v>
-      </c>
-      <c r="V31" s="9">
-        <f t="shared" si="45"/>
-        <v>0.1470814686492469</v>
-      </c>
-      <c r="W31" s="9">
-        <f t="shared" si="45"/>
-        <v>0.11882538017829052</v>
+      <c r="P31" s="26">
+        <f t="shared" si="40"/>
+        <v>0.30037109137364643</v>
+      </c>
+      <c r="Q31" s="26">
+        <f t="shared" si="40"/>
+        <v>0.23248578980608642</v>
+      </c>
+      <c r="R31" s="26">
+        <f t="shared" si="40"/>
+        <v>0.23203643955209718</v>
+      </c>
+      <c r="S31" s="26">
+        <f t="shared" ref="S31" si="41">(S30-R30)/R30</f>
+        <v>0.26264711319243328</v>
+      </c>
+      <c r="T31" s="26">
+        <f t="shared" ref="T31:Z31" si="42">(T30-S30)/S30</f>
+        <v>0.23218163628821706</v>
+      </c>
+      <c r="U31" s="26">
+        <f t="shared" si="42"/>
+        <v>0.19909502262443438</v>
+      </c>
+      <c r="V31" s="26">
+        <f t="shared" si="42"/>
+        <v>0.166657033153049</v>
+      </c>
+      <c r="W31" s="26">
+        <f t="shared" si="42"/>
+        <v>0.1373152709359606</v>
+      </c>
+      <c r="X31" s="26">
+        <f t="shared" si="42"/>
+        <v>0.15802575160714175</v>
+      </c>
+      <c r="Y31" s="26">
+        <f t="shared" si="42"/>
+        <v>0.14329704108941219</v>
+      </c>
+      <c r="Z31" s="26">
+        <f t="shared" si="42"/>
+        <v>0.13574339473647101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>3</v>
@@ -8362,56 +8833,53 @@
         <v>414</v>
       </c>
       <c r="P32" s="4">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="Q32" s="4">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="R32" s="4">
-        <v>1050</v>
+        <v>906</v>
       </c>
       <c r="S32" s="4">
-        <v>1300</v>
+        <v>1159</v>
       </c>
       <c r="T32" s="4">
-        <v>1706</v>
+        <v>1592</v>
       </c>
       <c r="U32" s="4">
-        <v>2192</v>
+        <v>2039</v>
       </c>
       <c r="V32" s="4">
-        <v>2514</v>
+        <v>2452</v>
       </c>
       <c r="W32" s="4">
-        <v>2953</v>
-      </c>
-      <c r="X32" s="10">
-        <f t="shared" ref="X32" si="46">R30*$C34</f>
-        <v>4151.6399999999994</v>
-      </c>
-      <c r="Y32" s="10">
-        <f t="shared" ref="Y32" si="47">S30*$C34</f>
-        <v>5159.76</v>
-      </c>
-      <c r="Z32" s="10">
-        <f t="shared" ref="Z32" si="48">T30*$C34</f>
-        <v>6279.66</v>
+        <v>2985</v>
+      </c>
+      <c r="X32" s="4">
+        <v>3806</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>4745</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>5821</v>
       </c>
       <c r="AA32" s="10">
-        <f t="shared" ref="AA32" si="49">U30*$C34</f>
-        <v>7481.16</v>
+        <f t="shared" ref="AA32" si="43">U30*$C34</f>
+        <v>7266.3</v>
       </c>
       <c r="AB32" s="10">
-        <f t="shared" ref="AB32" si="50">V30*$C34</f>
-        <v>8581.5</v>
+        <f t="shared" ref="AB32" si="44">V30*$C34</f>
+        <v>8477.2799999999988</v>
       </c>
       <c r="AC32" s="10">
-        <f t="shared" ref="AC32" si="51">W30*$C34</f>
-        <v>9601.1999999999989</v>
+        <f t="shared" ref="AC32" si="45">W30*$C34</f>
+        <v>9641.34</v>
       </c>
       <c r="AD32" s="10">
-        <f t="shared" ref="AD32" si="52">X30*$C34</f>
-        <v>11329.415999999997</v>
+        <f t="shared" ref="AD32" si="46">X30*$C34</f>
+        <v>11164.92</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
@@ -8420,80 +8888,92 @@
       <c r="C33" s="4"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <f t="shared" ref="E33:R33" si="53">(E32-D32)/D32</f>
+        <f t="shared" ref="E33:R33" si="47">(E32-D32)/D32</f>
         <v>0.3125</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.12</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.20967741935483872</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.27083333333333331</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.4098360655737705</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.33139534883720928</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.1703056768558952</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0.54477611940298509</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="53"/>
-        <v>0.32367149758454106</v>
+        <f t="shared" si="47"/>
+        <v>0.25362318840579712</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="53"/>
-        <v>0.28102189781021897</v>
+        <f t="shared" si="47"/>
+        <v>0.31213872832369943</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="53"/>
-        <v>0.49572649572649574</v>
+        <f t="shared" si="47"/>
+        <v>0.33039647577092512</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" ref="S33" si="54">(S32-R32)/R32</f>
-        <v>0.23809523809523808</v>
+        <f t="shared" ref="S33" si="48">(S32-R32)/R32</f>
+        <v>0.27924944812362029</v>
       </c>
       <c r="T33" s="9">
-        <f t="shared" ref="T33:W33" si="55">(T32-S32)/S32</f>
-        <v>0.31230769230769229</v>
+        <f t="shared" ref="T33:Z33" si="49">(T32-S32)/S32</f>
+        <v>0.37359792924935287</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="55"/>
-        <v>0.28487690504103164</v>
+        <f t="shared" si="49"/>
+        <v>0.28077889447236182</v>
       </c>
       <c r="V33" s="9">
-        <f t="shared" si="55"/>
-        <v>0.1468978102189781</v>
+        <f t="shared" si="49"/>
+        <v>0.20255026974006865</v>
       </c>
       <c r="W33" s="9">
-        <f t="shared" si="55"/>
-        <v>0.17462211614956244</v>
+        <f t="shared" si="49"/>
+        <v>0.21737357259380097</v>
+      </c>
+      <c r="X33" s="9">
+        <f t="shared" si="49"/>
+        <v>0.27504187604690117</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" si="49"/>
+        <v>0.2467157120336311</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" si="49"/>
+        <v>0.22676501580611169</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
@@ -8511,163 +8991,187 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="15">
-        <f t="shared" ref="J34:R34" si="56">J32/D30</f>
+        <f t="shared" ref="J34:R34" si="50">J32/D30</f>
         <v>0.10300429184549356</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>0.10141313383208644</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>0.10763454317897372</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>0.11914672216441206</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>7.101218865924748E-2</v>
       </c>
       <c r="O34" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>9.4693504117108876E-2</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" si="56"/>
-        <v>9.6888260254596889E-2</v>
+        <f t="shared" si="50"/>
+        <v>9.1760961810466765E-2</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" si="56"/>
-        <v>8.6945751795888038E-2</v>
+        <f t="shared" si="50"/>
+        <v>8.4344810502848644E-2</v>
       </c>
       <c r="R34" s="15">
-        <f t="shared" si="56"/>
-        <v>8.7368946580129808E-2</v>
+        <f t="shared" si="50"/>
+        <v>7.5386919620569148E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34" si="57">S32/M30</f>
-        <v>7.4549833696524834E-2</v>
+        <f t="shared" ref="S34" si="51">S32/M30</f>
+        <v>6.6464044041747911E-2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" ref="T34:W34" si="58">T32/N30</f>
-        <v>7.2190250507786047E-2</v>
+        <f t="shared" ref="T34:Z34" si="52">T32/N30</f>
+        <v>6.736628300609343E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="58"/>
-        <v>6.6674777953522321E-2</v>
+        <f t="shared" si="52"/>
+        <v>6.2020927120087603E-2</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="58"/>
-        <v>5.7769198952157728E-2</v>
+        <f t="shared" si="52"/>
+        <v>5.7355383499801176E-2</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="58"/>
-        <v>5.5123107651527878E-2</v>
+        <f t="shared" si="52"/>
+        <v>5.665211615107231E-2</v>
+      </c>
+      <c r="X34" s="15">
+        <f t="shared" si="52"/>
+        <v>5.8629613654568979E-2</v>
+      </c>
+      <c r="Y34" s="15">
+        <f t="shared" si="52"/>
+        <v>5.7889856769880191E-2</v>
+      </c>
+      <c r="Z34" s="15">
+        <f t="shared" si="52"/>
+        <v>5.7635375308177472E-2</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
-      <c r="B35" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="35"/>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="33"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="40">
-        <f t="shared" ref="M35" si="59">(M32-J32)/(H30-E30)</f>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="38">
+        <f t="shared" ref="M35" si="53">(M32-J32)/(H30-E30)</f>
         <v>5.1730844029560484E-2</v>
       </c>
-      <c r="N35" s="40">
-        <f t="shared" ref="N35" si="60">(N32-K32)/(I30-F30)</f>
+      <c r="N35" s="38">
+        <f t="shared" ref="N35" si="54">(N32-K32)/(I30-F30)</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="O35" s="40">
-        <f t="shared" ref="O35" si="61">(O32-L32)/(J30-G30)</f>
+      <c r="O35" s="38">
+        <f t="shared" ref="O35" si="55">(O32-L32)/(J30-G30)</f>
         <v>6.4809855382967324E-2</v>
       </c>
-      <c r="P35" s="40">
-        <f t="shared" ref="P35" si="62">(P32-M32)/(K30-H30)</f>
-        <v>7.4186046511627912E-2</v>
-      </c>
-      <c r="Q35" s="40">
-        <f t="shared" ref="Q35" si="63">(Q32-N32)/(L30-I30)</f>
-        <v>5.6761705466910804E-2</v>
-      </c>
-      <c r="R35" s="40">
-        <f t="shared" ref="R35" si="64">(R32-O32)/(M30-J30)</f>
-        <v>5.3980648446783228E-2</v>
-      </c>
-      <c r="S35" s="40">
-        <f t="shared" ref="S35" si="65">(S32-P32)/(N30-K30)</f>
-        <v>4.8335261601748294E-2</v>
-      </c>
-      <c r="T35" s="40">
-        <f t="shared" ref="T35:W35" si="66">(T32-Q32)/(O30-L30)</f>
-        <v>4.8135008150349982E-2</v>
-      </c>
-      <c r="U35" s="40">
-        <f t="shared" si="66"/>
-        <v>4.3788343558282206E-2</v>
-      </c>
-      <c r="V35" s="40">
-        <f t="shared" si="66"/>
-        <v>4.0549116536958481E-2</v>
-      </c>
-      <c r="W35" s="40">
-        <f t="shared" si="66"/>
-        <v>3.4335591166914481E-2</v>
+      <c r="P35" s="38">
+        <f t="shared" ref="P35" si="56">(P32-M32)/(K30-H30)</f>
+        <v>6.7441860465116285E-2</v>
+      </c>
+      <c r="Q35" s="38">
+        <f t="shared" ref="Q35" si="57">(Q32-N32)/(L30-I30)</f>
+        <v>5.4015171331415118E-2</v>
+      </c>
+      <c r="R35" s="38">
+        <f t="shared" ref="R35" si="58">(R32-O32)/(M30-J30)</f>
+        <v>4.1758614836190797E-2</v>
+      </c>
+      <c r="S35" s="38">
+        <f t="shared" ref="S35" si="59">(S32-P32)/(N30-K30)</f>
+        <v>4.1136392852551745E-2</v>
+      </c>
+      <c r="T35" s="38">
+        <f t="shared" ref="T35:Z35" si="60">(T32-Q32)/(O30-L30)</f>
+        <v>4.3676287275865373E-2</v>
+      </c>
+      <c r="U35" s="38">
+        <f t="shared" si="60"/>
+        <v>4.475960968672224E-2</v>
+      </c>
+      <c r="V35" s="38">
+        <f t="shared" si="60"/>
+        <v>4.449721247160851E-2</v>
+      </c>
+      <c r="W35" s="38">
+        <f t="shared" si="60"/>
+        <v>4.3476903870162294E-2</v>
+      </c>
+      <c r="X35" s="38">
+        <f t="shared" si="60"/>
+        <v>4.5059288537549404E-2</v>
+      </c>
+      <c r="Y35" s="38">
+        <f t="shared" si="60"/>
+        <v>4.7467240772558844E-2</v>
+      </c>
+      <c r="Z35" s="38">
+        <f t="shared" si="60"/>
+        <v>5.0472512413461706E-2</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -8701,64 +9205,76 @@
         <v>43906</v>
       </c>
       <c r="M38" s="13">
-        <f t="shared" ref="M38:AA38" si="67">L38+1</f>
+        <f t="shared" ref="M38:AD38" si="61">L38+1</f>
         <v>43907</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43908</v>
       </c>
       <c r="O38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43909</v>
       </c>
       <c r="P38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43910</v>
       </c>
       <c r="Q38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43911</v>
       </c>
       <c r="R38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43912</v>
       </c>
       <c r="S38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43913</v>
       </c>
       <c r="T38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43914</v>
       </c>
       <c r="U38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43915</v>
       </c>
       <c r="V38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43916</v>
       </c>
       <c r="W38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43917</v>
       </c>
       <c r="X38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43918</v>
       </c>
       <c r="Y38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43919</v>
       </c>
       <c r="Z38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43920</v>
       </c>
       <c r="AA38" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>43921</v>
+      </c>
+      <c r="AB38" s="13">
+        <f t="shared" si="61"/>
+        <v>43922</v>
+      </c>
+      <c r="AC38" s="13">
+        <f t="shared" si="61"/>
+        <v>43923</v>
+      </c>
+      <c r="AD38" s="13">
+        <f t="shared" si="61"/>
+        <v>43924</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -8831,10 +9347,15 @@
       <c r="AA39" s="19">
         <v>61913</v>
       </c>
+      <c r="AB39" s="19">
+        <v>67366</v>
+      </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -8842,35 +9363,35 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="9">
-        <f t="shared" ref="I40" si="68">(I39-H39)/H39</f>
+        <f t="shared" ref="I40" si="62">(I39-H39)/H39</f>
         <v>0.51180599872367583</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" ref="J40" si="69">(J39-I39)/I39</f>
+        <f t="shared" ref="J40" si="63">(J39-I39)/I39</f>
         <v>0.60194174757281549</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" ref="K40" si="70">(K39-J39)/J39</f>
+        <f t="shared" ref="K40" si="64">(K39-J39)/J39</f>
         <v>0.2748353096179183</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" ref="L40" si="71">(L39-K39)/K39</f>
+        <f t="shared" ref="L40" si="65">(L39-K39)/K39</f>
         <v>0.24266225713104589</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" ref="M40" si="72">(M39-L39)/L39</f>
+        <f t="shared" ref="M40" si="66">(M39-L39)/L39</f>
         <v>0.19028609447771125</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" ref="N40:AA40" si="73">(N39-M39)/M39</f>
+        <f t="shared" ref="N40:AB40" si="67">(N39-M39)/M39</f>
         <v>0.53703186137506986</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.26893353941267389</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.19380955792792148</v>
       </c>
       <c r="Q40" s="9">
@@ -8878,44 +9399,48 @@
         <v>0.33338109909006236</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7.4691026329930146E-2</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.1336</v>
       </c>
       <c r="T40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.21012702893436838</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.14973028138212569</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.15736748668526504</v>
       </c>
       <c r="W40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.15832146378875864</v>
       </c>
       <c r="X40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.14883654937570942</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8.1614589765756862E-2</v>
       </c>
       <c r="Z40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.1018326450606124</v>
       </c>
       <c r="AA40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>6.9346091402120974E-2</v>
+      </c>
+      <c r="AB40" s="9">
+        <f t="shared" si="67"/>
+        <v>8.8075202300001612E-2</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
@@ -8983,6 +9508,9 @@
       </c>
       <c r="AA41" s="19">
         <v>583</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>732</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
@@ -8997,72 +9525,76 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="9">
-        <f t="shared" ref="K42:W42" si="74">(K41-J41)/J41</f>
+        <f t="shared" ref="K42:W42" si="68">(K41-J41)/J41</f>
         <v>0.5</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.10294117647058823</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.14666666666666667</v>
       </c>
       <c r="T42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.32558139534883723</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.30701754385964913</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.32885906040268459</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" ref="X42" si="75">(X41-W41)/W41</f>
+        <f t="shared" ref="X42" si="69">(X41-W41)/W41</f>
         <v>0.28458498023715417</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" ref="Y42:AA42" si="76">(Y41-X41)/X41</f>
+        <f t="shared" ref="Y42:AB42" si="70">(Y41-X41)/X41</f>
         <v>0.19692307692307692</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>0.16966580976863754</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>0.28131868131868132</v>
+      </c>
+      <c r="AB42" s="9">
+        <f t="shared" si="70"/>
+        <v>0.25557461406518012</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
@@ -9082,60 +9614,64 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:W43" si="77">N41/H39</f>
+        <f t="shared" ref="N43:W43" si="71">N41/H39</f>
         <v>1.7868538608806637E-2</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.8573237653018153E-2</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.370223978919631E-2</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.4055394791236048E-2</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.2475049900199601E-2</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.2017887087758524E-2</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.0364578598054369E-2</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.067564662893172E-2</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.1883327331652862E-2</v>
       </c>
       <c r="W43" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1.3594841483073616E-2</v>
       </c>
       <c r="X43" s="11">
-        <f t="shared" ref="X43" si="78">X41/R39</f>
+        <f t="shared" ref="X43" si="72">X41/R39</f>
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="Y43" s="11">
-        <f t="shared" ref="Y43:AA43" si="79">Y41/S39</f>
+        <f t="shared" ref="Y43:AB43" si="73">Y41/S39</f>
         <v>1.7157727593507411E-2</v>
       </c>
       <c r="Z43" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>1.6584050153083538E-2</v>
       </c>
       <c r="AA43" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>1.848212021303576E-2</v>
+      </c>
+      <c r="AB43" s="11">
+        <f t="shared" si="73"/>
+        <v>2.0050399912347978E-2</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
@@ -9152,58 +9688,62 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="40">
-        <f t="shared" ref="O44" si="80">(O41-L41)/(J39-G39)</f>
+      <c r="N44" s="34"/>
+      <c r="O44" s="38">
+        <f t="shared" ref="O44" si="74">(O41-L41)/(J39-G39)</f>
         <v>7.9051383399209481E-3</v>
       </c>
-      <c r="P44" s="40">
-        <f t="shared" ref="P44" si="81">(P41-M41)/(K39-H39)</f>
+      <c r="P44" s="38">
+        <f t="shared" ref="P44" si="75">(P41-M41)/(K39-H39)</f>
         <v>7.9486395597676545E-3</v>
       </c>
-      <c r="Q44" s="40">
-        <f t="shared" ref="Q44" si="82">(Q41-N41)/(L39-I39)</f>
+      <c r="Q44" s="38">
+        <f t="shared" ref="Q44" si="76">(Q41-N41)/(L39-I39)</f>
         <v>1.0979961570134504E-2</v>
       </c>
-      <c r="R44" s="40">
-        <f t="shared" ref="R44" si="83">(R41-O41)/(M39-J39)</f>
+      <c r="R44" s="38">
+        <f t="shared" ref="R44" si="77">(R41-O41)/(M39-J39)</f>
         <v>9.2234454031538231E-3</v>
       </c>
-      <c r="S44" s="40">
-        <f t="shared" ref="S44" si="84">(S41-P41)/(N39-K39)</f>
+      <c r="S44" s="38">
+        <f t="shared" ref="S44" si="78">(S41-P41)/(N39-K39)</f>
         <v>5.5185846453497805E-3</v>
       </c>
-      <c r="T44" s="40">
-        <f t="shared" ref="T44" si="85">(T41-Q41)/(O39-L39)</f>
+      <c r="T44" s="38">
+        <f t="shared" ref="T44" si="79">(T41-Q41)/(O39-L39)</f>
         <v>5.7898049087476396E-3</v>
       </c>
-      <c r="U44" s="40">
-        <f t="shared" ref="U44" si="86">(U41-R41)/(P39-M39)</f>
+      <c r="U44" s="38">
+        <f t="shared" ref="U44" si="80">(U41-R41)/(P39-M39)</f>
         <v>7.784557121817799E-3</v>
       </c>
-      <c r="V44" s="40">
-        <f t="shared" ref="V44:W44" si="87">(V41-S41)/(Q39-N39)</f>
+      <c r="V44" s="38">
+        <f t="shared" ref="V44:W44" si="81">(V41-S41)/(Q39-N39)</f>
         <v>1.4715543292602811E-2</v>
       </c>
-      <c r="W44" s="40">
-        <f t="shared" si="87"/>
+      <c r="W44" s="38">
+        <f t="shared" si="81"/>
         <v>2.3001820287936455E-2</v>
       </c>
-      <c r="X44" s="40">
-        <f t="shared" ref="X44" si="88">(X41-U41)/(S39-P39)</f>
+      <c r="X44" s="38">
+        <f t="shared" ref="X44" si="82">(X41-U41)/(S39-P39)</f>
         <v>2.9284525790349417E-2</v>
       </c>
-      <c r="Y44" s="40">
-        <f t="shared" ref="Y44:AA44" si="89">(Y41-V41)/(T39-Q39)</f>
+      <c r="Y44" s="38">
+        <f t="shared" ref="Y44:AB44" si="83">(Y41-V41)/(T39-Q39)</f>
         <v>2.1640607296623614E-2</v>
       </c>
-      <c r="Z44" s="40">
-        <f t="shared" si="89"/>
+      <c r="Z44" s="38">
+        <f t="shared" si="83"/>
         <v>1.7498267498267498E-2</v>
       </c>
-      <c r="AA44" s="40">
-        <f t="shared" si="89"/>
+      <c r="AA44" s="38">
+        <f t="shared" si="83"/>
         <v>1.8647007805724199E-2</v>
+      </c>
+      <c r="AB44" s="38">
+        <f t="shared" si="83"/>
+        <v>2.3094532722865609E-2</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
@@ -9220,61 +9760,61 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
+      <c r="A46" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>2</v>
@@ -9303,61 +9843,69 @@
       <c r="I47" s="6">
         <v>43907</v>
       </c>
-      <c r="J47" s="38">
-        <f t="shared" ref="J47:W47" si="90">I47+1</f>
+      <c r="J47" s="36">
+        <f t="shared" ref="J47:Y47" si="84">I47+1</f>
         <v>43908</v>
       </c>
       <c r="K47" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43909</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43910</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43911</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43912</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43913</v>
       </c>
       <c r="P47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43914</v>
       </c>
       <c r="Q47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43915</v>
       </c>
       <c r="R47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43916</v>
       </c>
       <c r="S47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43917</v>
       </c>
       <c r="T47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43918</v>
       </c>
       <c r="U47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43919</v>
       </c>
       <c r="V47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43920</v>
       </c>
       <c r="W47" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>43921</v>
+      </c>
+      <c r="X47" s="13">
+        <f t="shared" si="84"/>
+        <v>43922</v>
+      </c>
+      <c r="Y47" s="13">
+        <f t="shared" si="84"/>
+        <v>43923</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
@@ -9423,6 +9971,12 @@
       </c>
       <c r="W48" s="19">
         <v>25150</v>
+      </c>
+      <c r="X48" s="19">
+        <v>29474</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>33718</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
@@ -9432,76 +9986,84 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="9">
-        <f t="shared" ref="F49:S49" si="91">(F48-E48)/E48</f>
+        <f t="shared" ref="F49:S49" si="85">(F48-E48)/E48</f>
         <v>0.35254237288135593</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.74310776942355894</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.10927390366642703</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.26377187297472454</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.34666666666666668</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.24485910129474486</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.21841541755888652</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.25985438111975895</v>
       </c>
       <c r="N49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.13252291749701076</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.17015660742565547</v>
       </c>
       <c r="P49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.21458646616541355</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.17976971647889067</v>
       </c>
       <c r="R49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.21397838178192885</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>0.26028699861687415</v>
       </c>
       <c r="T49" s="9">
-        <f t="shared" ref="T49" si="92">(T48-S48)/S48</f>
+        <f t="shared" ref="T49" si="86">(T48-S48)/S48</f>
         <v>0.17216544344605253</v>
       </c>
       <c r="U49" s="9">
-        <f t="shared" ref="U49:W49" si="93">(U48-T48)/T48</f>
+        <f t="shared" ref="U49:Y49" si="87">(U48-T48)/T48</f>
         <v>0.14237228626601908</v>
       </c>
       <c r="V49" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>0.13420756070074788</v>
       </c>
       <c r="W49" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>0.13585042001625869</v>
+      </c>
+      <c r="X49" s="9">
+        <f t="shared" si="87"/>
+        <v>0.17192842942345923</v>
+      </c>
+      <c r="Y49" s="9">
+        <f t="shared" si="87"/>
+        <v>0.14399131437877452</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
@@ -9565,6 +10127,12 @@
       </c>
       <c r="W50" s="19">
         <v>1789</v>
+      </c>
+      <c r="X50" s="19">
+        <v>2352</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>2921</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
@@ -9575,72 +10143,80 @@
       <c r="E51" s="4"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9">
-        <f t="shared" ref="G51:S51" si="94">(G50-F50)/F50</f>
+        <f t="shared" ref="G51:S51" si="88">(G50-F50)/F50</f>
         <v>0.19047619047619047</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>1.2</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.71666666666666667</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.39805825242718446</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.22916666666666666</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.31638418079096048</v>
       </c>
       <c r="N51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.20600858369098712</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.19217081850533807</v>
       </c>
       <c r="P51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.25970149253731345</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.1018957345971564</v>
       </c>
       <c r="R51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.24301075268817204</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.31314878892733566</v>
       </c>
       <c r="T51" s="9">
-        <f t="shared" ref="T51" si="95">(T50-S50)/S50</f>
+        <f t="shared" ref="T51" si="89">(T50-S50)/S50</f>
         <v>0.34255599472990778</v>
       </c>
       <c r="U51" s="9">
-        <f t="shared" ref="U51:W51" si="96">(U50-T50)/T50</f>
+        <f t="shared" ref="U51:Y51" si="90">(U50-T50)/T50</f>
         <v>0.20510304219823355</v>
       </c>
       <c r="V51" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>0.1465798045602606</v>
       </c>
       <c r="W51" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>0.27059659090909088</v>
+      </c>
+      <c r="X51" s="9">
+        <f t="shared" si="90"/>
+        <v>0.31470095025153716</v>
+      </c>
+      <c r="Y51" s="9">
+        <f t="shared" si="90"/>
+        <v>0.241921768707483</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
@@ -9657,56 +10233,64 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="16">
-        <f t="shared" ref="K52:S52" si="97">K50/E48</f>
+        <f t="shared" ref="K52:S52" si="91">K50/E48</f>
         <v>0.2440677966101695</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.22180451127819548</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.16750539180445723</v>
       </c>
       <c r="N52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.18211276733635776</v>
       </c>
       <c r="O52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.1717948717948718</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.16070068545316071</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.14224533496482106</v>
       </c>
       <c r="R52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.14511674617122772</v>
       </c>
       <c r="S52" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.15125548027102431</v>
       </c>
       <c r="T52" s="16">
-        <f t="shared" ref="T52" si="98">T50/N48</f>
+        <f t="shared" ref="T52" si="92">T50/N48</f>
         <v>0.17930670420552525</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" ref="U52:W52" si="99">U50/O48</f>
+        <f t="shared" ref="U52:Y52" si="93">U50/O48</f>
         <v>0.18466165413533833</v>
       </c>
       <c r="V52" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>0.17432214931286369</v>
       </c>
       <c r="W52" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>0.1877426802392696</v>
+      </c>
+      <c r="X52" s="16">
+        <f t="shared" si="93"/>
+        <v>0.2033195020746888</v>
+      </c>
+      <c r="Y52" s="16">
+        <f t="shared" si="93"/>
+        <v>0.20035667741271693</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
@@ -9721,53 +10305,61 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="22"/>
-      <c r="L53" s="40">
-        <f t="shared" ref="L53" si="100">(L50-I50)/(G48-D48)</f>
+      <c r="L53" s="38">
+        <f t="shared" ref="L53" si="94">(L50-I50)/(G48-D48)</f>
         <v>8.4112149532710276E-2</v>
       </c>
-      <c r="M53" s="40">
-        <f t="shared" ref="M53" si="101">(M50-J50)/(H48-E48)</f>
+      <c r="M53" s="38">
+        <f t="shared" ref="M53" si="95">(M50-J50)/(H48-E48)</f>
         <v>0.13641133263378805</v>
       </c>
-      <c r="N53" s="40">
-        <f t="shared" ref="N53" si="102">(N50-K50)/(I48-F48)</f>
+      <c r="N53" s="38">
+        <f t="shared" ref="N53" si="96">(N50-K50)/(I48-F48)</f>
         <v>0.1189236111111111</v>
       </c>
-      <c r="O53" s="40">
-        <f t="shared" ref="O53" si="103">(O50-L50)/(J48-G48)</f>
+      <c r="O53" s="38">
+        <f t="shared" ref="O53" si="97">(O50-L50)/(J48-G48)</f>
         <v>0.12793522267206478</v>
       </c>
-      <c r="P53" s="40">
-        <f t="shared" ref="P53" si="104">(P50-M50)/(K48-H48)</f>
+      <c r="P53" s="38">
+        <f t="shared" ref="P53" si="98">(P50-M50)/(K48-H48)</f>
         <v>0.10950173812282735</v>
       </c>
-      <c r="Q53" s="40">
-        <f t="shared" ref="Q53" si="105">(Q50-N50)/(L48-I48)</f>
+      <c r="Q53" s="38">
+        <f t="shared" ref="Q53" si="99">(Q50-N50)/(L48-I48)</f>
         <v>9.0506640432857846E-2</v>
       </c>
-      <c r="R53" s="40">
-        <f t="shared" ref="R53" si="106">(R50-O50)/(M48-J48)</f>
+      <c r="R53" s="38">
+        <f t="shared" ref="R53" si="100">(R50-O50)/(M48-J48)</f>
         <v>0.10158862876254181</v>
       </c>
-      <c r="S53" s="40">
-        <f t="shared" ref="S53" si="107">(S50-P50)/(N48-K48)</f>
+      <c r="S53" s="38">
+        <f t="shared" ref="S53" si="101">(S50-P50)/(N48-K48)</f>
         <v>0.13960231980115989</v>
       </c>
-      <c r="T53" s="40">
-        <f t="shared" ref="T53" si="108">(T50-Q50)/(O48-L48)</f>
+      <c r="T53" s="38">
+        <f t="shared" ref="T53" si="102">(T50-Q50)/(O48-L48)</f>
         <v>0.20772403449568805</v>
       </c>
-      <c r="U53" s="40">
-        <f t="shared" ref="U53:W53" si="109">(U50-R50)/(P48-M48)</f>
+      <c r="U53" s="38">
+        <f t="shared" ref="U53:Y53" si="103">(U50-R50)/(P48-M48)</f>
         <v>0.21248774109186008</v>
       </c>
-      <c r="V53" s="40">
-        <f t="shared" si="109"/>
+      <c r="V53" s="38">
+        <f t="shared" si="103"/>
         <v>0.1687467498699948</v>
       </c>
-      <c r="W53" s="40">
-        <f t="shared" si="109"/>
+      <c r="W53" s="38">
+        <f t="shared" si="103"/>
         <v>0.156567710451403</v>
+      </c>
+      <c r="X53" s="38">
+        <f t="shared" si="103"/>
+        <v>0.17286988618886495</v>
+      </c>
+      <c r="Y53" s="38">
+        <f t="shared" si="103"/>
+        <v>0.20013227513227513</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
@@ -9793,158 +10385,174 @@
       <c r="T54" s="20"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="55"/>
-      <c r="AJ55" s="55"/>
-      <c r="AK55" s="55"/>
-      <c r="AL55" s="55"/>
+      <c r="A55" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="54"/>
+      <c r="AI55" s="54"/>
+      <c r="AJ55" s="54"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="54"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="6">
-        <f t="shared" ref="D56:K56" si="110">E56-1</f>
+        <f t="shared" ref="D56:K56" si="104">E56-1</f>
         <v>43898</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43899</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43900</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43901</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43902</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43903</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43904</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>43905</v>
       </c>
       <c r="L56" s="6">
         <v>43906</v>
       </c>
       <c r="M56" s="6">
-        <f t="shared" ref="M56:AB56" si="111">L56+1</f>
+        <f t="shared" ref="M56:AB56" si="105">L56+1</f>
         <v>43907</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43908</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43909</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43910</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43911</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43912</v>
       </c>
       <c r="S56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43913</v>
       </c>
       <c r="T56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43914</v>
       </c>
       <c r="U56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43915</v>
       </c>
       <c r="V56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43916</v>
       </c>
       <c r="W56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43917</v>
       </c>
       <c r="X56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43918</v>
       </c>
       <c r="Y56" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43919</v>
       </c>
       <c r="Z56" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43920</v>
       </c>
       <c r="AA56" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43921</v>
       </c>
       <c r="AB56" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>43922</v>
+      </c>
+      <c r="AC56" s="13">
+        <f t="shared" ref="AC56" si="106">AB56+1</f>
+        <v>43923</v>
+      </c>
+      <c r="AD56" s="13">
+        <f t="shared" ref="AD56" si="107">AC56+1</f>
+        <v>43924</v>
+      </c>
+      <c r="AE56" s="13">
+        <f t="shared" ref="AE56" si="108">AD56+1</f>
+        <v>43925</v>
+      </c>
+      <c r="AF56" s="13">
+        <f t="shared" ref="AF56" si="109">AE56+1</f>
+        <v>43926</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="7">
@@ -9963,7 +10571,7 @@
       <c r="H57" s="4">
         <v>3146</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="29">
         <v>5232</v>
       </c>
       <c r="J57" s="4">
@@ -9987,7 +10595,7 @@
       <c r="P57" s="4">
         <v>20071</v>
       </c>
-      <c r="Q57" s="29">
+      <c r="Q57" s="28">
         <v>23000</v>
       </c>
       <c r="R57" s="4">
@@ -10020,17 +10628,23 @@
       <c r="AA57" s="4">
         <v>94417</v>
       </c>
-      <c r="AB57" s="10">
-        <f t="shared" ref="AB57:AD57" si="112">AA57*(1+$C57)</f>
-        <v>108579.54999999999</v>
-      </c>
-      <c r="AC57" s="10">
-        <f t="shared" si="112"/>
-        <v>124866.48249999998</v>
+      <c r="AB57" s="4">
+        <v>102136</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>110238</v>
       </c>
       <c r="AD57" s="10">
-        <f t="shared" si="112"/>
-        <v>143596.45487499997</v>
+        <f t="shared" ref="AC57:AF57" si="110">AC57*(1+$C57)</f>
+        <v>126773.7</v>
+      </c>
+      <c r="AE57" s="10">
+        <f t="shared" si="110"/>
+        <v>145789.75499999998</v>
+      </c>
+      <c r="AF57" s="10">
+        <f t="shared" si="110"/>
+        <v>167658.21824999995</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
@@ -10040,98 +10654,106 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="9">
-        <f t="shared" ref="F58:N58" si="113">(F57-E57)/E57</f>
+        <f t="shared" ref="F58:N58" si="111">(F57-E57)/E57</f>
         <v>0.37692932575142163</v>
       </c>
       <c r="G58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.3433628318584071</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.38164251207729466</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.66306420851875403</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.22152140672782875</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.21686746987951808</v>
+      </c>
+      <c r="M58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.21618975084321618</v>
+      </c>
+      <c r="N58" s="9">
+        <f t="shared" si="111"/>
+        <v>0.22705314009661837</v>
+      </c>
+      <c r="O58" s="9">
+        <f t="shared" ref="O58" si="112">(O57-N57)/N57</f>
+        <v>0.25495771361913094</v>
+      </c>
+      <c r="P58" s="9">
+        <f t="shared" ref="P58:AC58" si="113">(P57-O57)/O57</f>
+        <v>0.16603729739150641</v>
+      </c>
+      <c r="Q58" s="9">
         <f t="shared" si="113"/>
-        <v>0.3433628318584071</v>
-      </c>
-      <c r="H58" s="9">
+        <v>0.14593194160729411</v>
+      </c>
+      <c r="R58" s="9">
         <f t="shared" si="113"/>
-        <v>0.38164251207729466</v>
-      </c>
-      <c r="I58" s="9">
+        <v>0.29752173913043478</v>
+      </c>
+      <c r="S58" s="9">
         <f t="shared" si="113"/>
-        <v>0.66306420851875403</v>
-      </c>
-      <c r="J58" s="9">
+        <v>0.10876922561404684</v>
+      </c>
+      <c r="T58" s="9">
         <f t="shared" si="113"/>
-        <v>0.22152140672782875</v>
-      </c>
-      <c r="K58" s="9">
+        <v>0.19885762640152316</v>
+      </c>
+      <c r="U58" s="9">
         <f t="shared" si="113"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="L58" s="9">
+        <v>0.20018150192845799</v>
+      </c>
+      <c r="V58" s="9">
         <f t="shared" si="113"/>
-        <v>0.21686746987951808</v>
-      </c>
-      <c r="M58" s="9">
+        <v>0.18017223272421759</v>
+      </c>
+      <c r="W58" s="9">
         <f t="shared" si="113"/>
-        <v>0.21618975084321618</v>
-      </c>
-      <c r="N58" s="9">
+        <v>0.14008329180607959</v>
+      </c>
+      <c r="X58" s="9">
         <f t="shared" si="113"/>
-        <v>0.22705314009661837</v>
-      </c>
-      <c r="O58" s="9">
-        <f t="shared" ref="O58" si="114">(O57-N57)/N57</f>
-        <v>0.25495771361913094</v>
-      </c>
-      <c r="P58" s="9">
-        <f t="shared" ref="P58:AA58" si="115">(P57-O57)/O57</f>
-        <v>0.16603729739150641</v>
-      </c>
-      <c r="Q58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.14593194160729411</v>
-      </c>
-      <c r="R58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.29752173913043478</v>
-      </c>
-      <c r="S58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.10876922561404684</v>
-      </c>
-      <c r="T58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.19885762640152316</v>
-      </c>
-      <c r="U58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.20018150192845799</v>
-      </c>
-      <c r="V58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.18017223272421759</v>
-      </c>
-      <c r="W58" s="9">
-        <f t="shared" si="115"/>
-        <v>0.14008329180607959</v>
-      </c>
-      <c r="X58" s="9">
-        <f t="shared" si="115"/>
         <v>0.12783527685415008</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>9.0618425423541135E-2</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>8.1223427882479854E-2</v>
       </c>
       <c r="AA58" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>0.10824578907212865</v>
+      </c>
+      <c r="AB58" s="9">
+        <f t="shared" si="113"/>
+        <v>8.1754345086160335E-2</v>
+      </c>
+      <c r="AC58" s="9">
+        <f t="shared" si="113"/>
+        <v>7.932560507558549E-2</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="29" t="s">
-        <v>22</v>
+      <c r="B59" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -10163,7 +10785,7 @@
       <c r="P59" s="4">
         <v>1002</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q59" s="28">
         <v>1378</v>
       </c>
       <c r="R59" s="4">
@@ -10195,6 +10817,24 @@
       </c>
       <c r="AA59" s="4">
         <v>8189</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>9053</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>10003</v>
+      </c>
+      <c r="AD59" s="10">
+        <f t="shared" ref="AC59:AF59" si="114">X57*$C61</f>
+        <v>13004.64</v>
+      </c>
+      <c r="AE59" s="10">
+        <f t="shared" si="114"/>
+        <v>14183.1</v>
+      </c>
+      <c r="AF59" s="10">
+        <f t="shared" si="114"/>
+        <v>15335.099999999999</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
@@ -10208,76 +10848,84 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9">
-        <f t="shared" ref="J60:AA60" si="116">(J59-I59)/I59</f>
+        <f t="shared" ref="J60:AC60" si="115">(J59-I59)/I59</f>
         <v>0.47368421052631576</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.46938775510204084</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.5889967637540453</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.21792260692464357</v>
       </c>
       <c r="O60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.28260869565217389</v>
       </c>
       <c r="P60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.30638852672750977</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.37524950099800397</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.28592162554426703</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.23137697516930023</v>
       </c>
       <c r="T60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.23373052245646195</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.27563150074294207</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.19073966220151428</v>
       </c>
       <c r="W60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.18806554169723649</v>
       </c>
       <c r="X60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.17126389460683408</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.14727592267135325</v>
       </c>
       <c r="Z60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.12438725490196079</v>
       </c>
       <c r="AA60" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.11566757493188011</v>
+      </c>
+      <c r="AB60" s="9">
+        <f t="shared" si="115"/>
+        <v>0.10550738795945781</v>
+      </c>
+      <c r="AC60" s="9">
+        <f t="shared" si="115"/>
+        <v>0.10493758974925439</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
@@ -10294,78 +10942,86 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="11">
-        <f t="shared" ref="K61:AA61" si="117">K59/E57</f>
+        <f t="shared" ref="K61:AC61" si="116">K59/E57</f>
         <v>0.23395613322502032</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.18230088495575222</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.21563460693895475</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19008264462809918</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.14659785932721711</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.15678297606008448</v>
       </c>
       <c r="Q61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.18244406196213425</v>
       </c>
       <c r="R61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19279730170819279</v>
       </c>
       <c r="S61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19520486670245124</v>
       </c>
       <c r="T61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19626713327500728</v>
       </c>
       <c r="U61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19950037762156508</v>
       </c>
       <c r="V61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.20372676996661851</v>
       </c>
       <c r="W61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.21121739130434783</v>
       </c>
       <c r="X61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19066447743189358</v>
       </c>
       <c r="Y61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.19728610716552328</v>
       </c>
       <c r="Z61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.18503113262245077</v>
       </c>
       <c r="AA61" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.17200168031926066</v>
+      </c>
+      <c r="AB61" s="11">
+        <f t="shared" si="116"/>
+        <v>0.16111981205951448</v>
+      </c>
+      <c r="AC61" s="11">
+        <f t="shared" si="116"/>
+        <v>0.1561529215254687</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
-      <c r="C62" s="35"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
@@ -10373,76 +11029,84 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="40">
-        <f t="shared" ref="L62:M62" si="118">(L59-I59)/(G57-D57)</f>
+      <c r="K62" s="34"/>
+      <c r="L62" s="38">
+        <f t="shared" ref="L62:M62" si="117">(L59-I59)/(G57-D57)</f>
         <v>7.7294685990338161E-2</v>
       </c>
-      <c r="M62" s="40">
-        <f t="shared" si="118"/>
+      <c r="M62" s="38">
+        <f t="shared" si="117"/>
         <v>0.15404699738903394</v>
       </c>
-      <c r="N62" s="40">
-        <f t="shared" ref="N62" si="119">(N59-K59)/(I57-F57)</f>
+      <c r="N62" s="38">
+        <f t="shared" ref="N62" si="118">(N59-K59)/(I57-F57)</f>
         <v>8.7644896805202155E-2</v>
       </c>
-      <c r="O62" s="40">
-        <f t="shared" ref="O62" si="120">(O59-L59)/(J57-G57)</f>
+      <c r="O62" s="38">
+        <f t="shared" ref="O62" si="119">(O59-L59)/(J57-G57)</f>
         <v>0.11132717549829849</v>
       </c>
-      <c r="P62" s="40">
-        <f t="shared" ref="P62" si="121">(P59-M59)/(K57-H57)</f>
+      <c r="P62" s="38">
+        <f t="shared" ref="P62" si="120">(P59-M59)/(K57-H57)</f>
         <v>0.11595189471295667</v>
       </c>
-      <c r="Q62" s="40">
-        <f t="shared" ref="Q62" si="122">(Q59-N59)/(L57-I57)</f>
+      <c r="Q62" s="38">
+        <f t="shared" ref="Q62" si="121">(Q59-N59)/(L57-I57)</f>
         <v>0.19701944935589796</v>
       </c>
-      <c r="R62" s="40">
-        <f t="shared" ref="R62" si="123">(R59-O59)/(M57-J57)</f>
+      <c r="R62" s="38">
+        <f t="shared" ref="R62" si="122">(R59-O59)/(M57-J57)</f>
         <v>0.20994359724253187</v>
       </c>
-      <c r="S62" s="40">
-        <f t="shared" ref="S62" si="124">(S59-P59)/(N57-K57)</f>
+      <c r="S62" s="38">
+        <f t="shared" ref="S62" si="123">(S59-P59)/(N57-K57)</f>
         <v>0.19146519552166152</v>
       </c>
-      <c r="T62" s="40">
-        <f t="shared" ref="T62" si="125">(T59-Q59)/(O57-L57)</f>
+      <c r="T62" s="38">
+        <f t="shared" ref="T62" si="124">(T59-Q59)/(O57-L57)</f>
         <v>0.16379955123410619</v>
       </c>
-      <c r="U62" s="40">
-        <f t="shared" ref="U62" si="126">(U59-R59)/(P57-M57)</f>
+      <c r="U62" s="38">
+        <f t="shared" ref="U62" si="125">(U59-R59)/(P57-M57)</f>
         <v>0.1868885640391319</v>
       </c>
-      <c r="V62" s="40">
-        <f t="shared" ref="V62" si="127">(V59-S59)/(Q57-N57)</f>
+      <c r="V62" s="38">
+        <f t="shared" ref="V62" si="126">(V59-S59)/(Q57-N57)</f>
         <v>0.20540715208961655</v>
       </c>
-      <c r="W62" s="40">
-        <f t="shared" ref="W62:AA62" si="128">(W59-T59)/(R57-O57)</f>
+      <c r="W62" s="38">
+        <f t="shared" ref="W62:AC62" si="127">(W59-T59)/(R57-O57)</f>
         <v>0.17149643705463183</v>
       </c>
-      <c r="X62" s="40">
-        <f t="shared" si="128"/>
+      <c r="X62" s="38">
+        <f t="shared" si="127"/>
         <v>0.17329850975572283</v>
       </c>
-      <c r="Y62" s="40">
-        <f t="shared" si="128"/>
+      <c r="Y62" s="38">
+        <f t="shared" si="127"/>
         <v>0.14631951526786249</v>
       </c>
-      <c r="Z62" s="40">
-        <f t="shared" si="128"/>
+      <c r="Z62" s="38">
+        <f t="shared" si="127"/>
         <v>0.13969719142229978</v>
       </c>
-      <c r="AA62" s="40">
-        <f t="shared" si="128"/>
+      <c r="AA62" s="38">
+        <f t="shared" si="127"/>
         <v>0.10818650158015498</v>
+      </c>
+      <c r="AB62" s="38">
+        <f t="shared" si="127"/>
+        <v>0.1035260352603526</v>
+      </c>
+      <c r="AC62" s="38">
+        <f t="shared" si="127"/>
+        <v>0.10808507184024678</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
-      <c r="C63" s="35"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
@@ -10450,20 +11114,20 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>2</v>
@@ -10477,72 +11141,108 @@
         <v>43897</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" ref="F64:V64" si="129">E64+1</f>
+        <f t="shared" ref="F64:V64" si="128">E64+1</f>
         <v>43898</v>
       </c>
       <c r="G64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43899</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43900</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43901</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43902</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43903</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43904</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43905</v>
       </c>
       <c r="N64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43906</v>
       </c>
       <c r="O64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43907</v>
       </c>
       <c r="P64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43908</v>
       </c>
       <c r="Q64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43909</v>
       </c>
       <c r="R64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43910</v>
       </c>
       <c r="S64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43911</v>
       </c>
       <c r="T64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43912</v>
       </c>
       <c r="U64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43913</v>
       </c>
       <c r="V64" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>43914</v>
+      </c>
+      <c r="W64" s="13">
+        <f t="shared" ref="W64" si="129">V64+1</f>
+        <v>43915</v>
+      </c>
+      <c r="X64" s="13">
+        <f t="shared" ref="X64" si="130">W64+1</f>
+        <v>43916</v>
+      </c>
+      <c r="Y64" s="13">
+        <f t="shared" ref="Y64" si="131">X64+1</f>
+        <v>43917</v>
+      </c>
+      <c r="Z64" s="13">
+        <f t="shared" ref="Z64" si="132">Y64+1</f>
+        <v>43918</v>
+      </c>
+      <c r="AA64" s="13">
+        <f t="shared" ref="AA64" si="133">Z64+1</f>
+        <v>43919</v>
+      </c>
+      <c r="AB64" s="13">
+        <f t="shared" ref="AB64" si="134">AA64+1</f>
+        <v>43920</v>
+      </c>
+      <c r="AC64" s="13">
+        <f t="shared" ref="AC64:AE64" si="135">AB64+1</f>
+        <v>43921</v>
+      </c>
+      <c r="AD64" s="13">
+        <f t="shared" si="135"/>
+        <v>43922</v>
+      </c>
+      <c r="AE64" s="13">
+        <f t="shared" si="135"/>
+        <v>43923</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -10615,82 +11315,82 @@
       <c r="C66" s="7"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <f t="shared" ref="E66" si="130">(E65-D65)/D65</f>
+        <f t="shared" ref="E66" si="136">(E65-D65)/D65</f>
         <v>5.4233781587113936E-2</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" ref="F66" si="131">(F65-E65)/E65</f>
+        <f t="shared" ref="F66" si="137">(F65-E65)/E65</f>
         <v>3.476310625175217E-2</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" ref="G66" si="132">(G65-F65)/F65</f>
+        <f t="shared" ref="G66" si="138">(G65-F65)/F65</f>
         <v>1.7745868328366297E-2</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66" si="133">(H65-G65)/G65</f>
+        <f t="shared" ref="H66" si="139">(H65-G65)/G65</f>
         <v>3.2210834553440704E-2</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" ref="I66" si="134">(I65-H65)/H65</f>
+        <f t="shared" ref="I66" si="140">(I65-H65)/H65</f>
         <v>1.4700193423597678E-2</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" ref="J66" si="135">(J65-I65)/I65</f>
+        <f t="shared" ref="J66" si="141">(J65-I65)/I65</f>
         <v>1.3978904562206126E-2</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" ref="K66:Q66" si="136">(K65-J65)/J65</f>
+        <f t="shared" ref="K66:Q66" si="142">(K65-J65)/J65</f>
         <v>1.3410201779671638E-2</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>9.3989611674499141E-3</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>9.0664052928203873E-3</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>1.0199125789218067E-2</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>1.1177884615384616E-2</v>
       </c>
       <c r="P66" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>1.8067276833472007E-2</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>1.0157618213660246E-2</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" ref="R66" si="137">(R65-Q65)/Q65</f>
+        <f t="shared" ref="R66" si="143">(R65-Q65)/Q65</f>
         <v>1.6990291262135922E-2</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" ref="S66" si="138">(S65-R65)/R65</f>
+        <f t="shared" ref="S66" si="144">(S65-R65)/R65</f>
         <v>1.1137629276054098E-2</v>
       </c>
       <c r="T66" s="9">
-        <f t="shared" ref="T66:V66" si="139">(T65-S65)/S65</f>
+        <f t="shared" ref="T66:V66" si="145">(T65-S65)/S65</f>
         <v>7.1934359896594358E-3</v>
       </c>
       <c r="U66" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>8.481196295056356E-3</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>1.1065619121389841E-2</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="4"/>
@@ -10752,55 +11452,55 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9">
-        <f t="shared" ref="J68" si="140">(J67-I67)/I67</f>
+        <f t="shared" ref="J68" si="146">(J67-I67)/I67</f>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" ref="K68" si="141">(K67-J67)/J67</f>
+        <f t="shared" ref="K68" si="147">(K67-J67)/J67</f>
         <v>7.4626865671641784E-2</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" ref="L68" si="142">(L67-K67)/K67</f>
+        <f t="shared" ref="L68" si="148">(L67-K67)/K67</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" ref="M68" si="143">(M67-L67)/L67</f>
+        <f t="shared" ref="M68" si="149">(M67-L67)/L67</f>
         <v>0</v>
       </c>
       <c r="N68" s="9">
-        <f t="shared" ref="N68" si="144">(N67-M67)/M67</f>
+        <f t="shared" ref="N68" si="150">(N67-M67)/M67</f>
         <v>0.08</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" ref="O68" si="145">(O67-N67)/N67</f>
+        <f t="shared" ref="O68" si="151">(O67-N67)/N67</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="P68" s="9">
-        <f t="shared" ref="P68" si="146">(P67-O67)/O67</f>
+        <f t="shared" ref="P68" si="152">(P67-O67)/O67</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" ref="Q68" si="147">(Q67-P67)/P67</f>
+        <f t="shared" ref="Q68" si="153">(Q67-P67)/P67</f>
         <v>3.2967032967032968E-2</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" ref="R68" si="148">(R67-Q67)/Q67</f>
+        <f t="shared" ref="R68" si="154">(R67-Q67)/Q67</f>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="S68" s="9">
-        <f t="shared" ref="S68" si="149">(S67-R67)/R67</f>
+        <f t="shared" ref="S68" si="155">(S67-R67)/R67</f>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="T68" s="9">
-        <f t="shared" ref="T68:V68" si="150">(T67-S67)/S67</f>
+        <f t="shared" ref="T68:V68" si="156">(T67-S67)/S67</f>
         <v>6.7307692307692304E-2</v>
       </c>
       <c r="U68" s="9">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="V68" s="9">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0.05</v>
       </c>
     </row>
@@ -10815,62 +11515,62 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11">
-        <f t="shared" ref="J69:K69" si="151">J67/D65</f>
+        <f t="shared" ref="J69:K69" si="157">J67/D65</f>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>1.0092514718250631E-2</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" ref="L69" si="152">L67/F65</f>
+        <f t="shared" ref="L69" si="158">L67/F65</f>
         <v>1.0159848279599025E-2</v>
       </c>
       <c r="M69" s="11">
-        <f t="shared" ref="M69" si="153">M67/G65</f>
+        <f t="shared" ref="M69" si="159">M67/G65</f>
         <v>9.982696659124185E-3</v>
       </c>
       <c r="N69" s="11">
-        <f t="shared" ref="N69" si="154">N67/H65</f>
+        <f t="shared" ref="N69" si="160">N67/H65</f>
         <v>1.0444874274661509E-2</v>
       </c>
       <c r="O69" s="11">
-        <f t="shared" ref="O69" si="155">O67/I65</f>
+        <f t="shared" ref="O69" si="161">O67/I65</f>
         <v>1.067479984750286E-2</v>
       </c>
       <c r="P69" s="11">
-        <f t="shared" ref="P69" si="156">P67/J65</f>
+        <f t="shared" ref="P69" si="162">P67/J65</f>
         <v>1.1404937962150646E-2</v>
       </c>
       <c r="Q69" s="11">
-        <f t="shared" ref="Q69" si="157">Q67/K65</f>
+        <f t="shared" ref="Q69" si="163">Q67/K65</f>
         <v>1.1625030917635419E-2</v>
       </c>
       <c r="R69" s="11">
-        <f t="shared" ref="R69" si="158">R67/L65</f>
+        <f t="shared" ref="R69" si="164">R67/L65</f>
         <v>1.2496937025238911E-2</v>
       </c>
       <c r="S69" s="11">
-        <f t="shared" ref="S69" si="159">S67/M65</f>
+        <f t="shared" ref="S69" si="165">S67/M65</f>
         <v>1.2627489072365225E-2</v>
       </c>
       <c r="T69" s="11">
-        <f t="shared" ref="T69:V69" si="160">T67/N65</f>
+        <f t="shared" ref="T69:V69" si="166">T67/N65</f>
         <v>1.3341346153846153E-2</v>
       </c>
       <c r="U69" s="11">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>1.4263639605372637E-2</v>
       </c>
       <c r="V69" s="11">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>1.4711033274956218E-2</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
-      <c r="C70" s="35"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="21"/>
@@ -10878,14 +11578,14 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
     </row>
@@ -10893,1268 +11593,1483 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
+      <c r="C75" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E80" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="40"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F82" s="28">
-        <f t="shared" ref="F82:M82" si="161">G82-1</f>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E81" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E83" s="4"/>
+      <c r="F83" s="6">
+        <f t="shared" ref="F83:M83" si="167">G83-1</f>
         <v>43904</v>
       </c>
-      <c r="G82" s="28">
-        <f t="shared" si="161"/>
+      <c r="G83" s="6">
+        <f t="shared" si="167"/>
         <v>43905</v>
       </c>
-      <c r="H82" s="28">
-        <f t="shared" si="161"/>
+      <c r="H83" s="6">
+        <f t="shared" si="167"/>
         <v>43906</v>
       </c>
-      <c r="I82" s="28">
-        <f t="shared" si="161"/>
+      <c r="I83" s="6">
+        <f t="shared" si="167"/>
         <v>43907</v>
       </c>
-      <c r="J82" s="28">
-        <f t="shared" si="161"/>
+      <c r="J83" s="6">
+        <f t="shared" si="167"/>
         <v>43908</v>
       </c>
-      <c r="K82" s="28">
-        <f t="shared" si="161"/>
+      <c r="K83" s="6">
+        <f t="shared" si="167"/>
         <v>43909</v>
       </c>
-      <c r="L82" s="28">
-        <f t="shared" si="161"/>
+      <c r="L83" s="6">
+        <f t="shared" si="167"/>
         <v>43910</v>
       </c>
-      <c r="M82" s="28">
-        <f t="shared" si="161"/>
+      <c r="M83" s="6">
+        <f t="shared" si="167"/>
         <v>43911</v>
       </c>
-      <c r="N82" s="28">
+      <c r="N83" s="6">
         <v>43912</v>
       </c>
-      <c r="O82" s="28">
-        <f>N82+1</f>
+      <c r="O83" s="6">
+        <f>N83+1</f>
         <v>43913</v>
       </c>
-      <c r="P82" s="28">
-        <f t="shared" ref="P82:S82" si="162">O82+1</f>
+      <c r="P83" s="6">
+        <f t="shared" ref="P83:S83" si="168">O83+1</f>
         <v>43914</v>
       </c>
-      <c r="Q82" s="28">
-        <f t="shared" si="162"/>
+      <c r="Q83" s="6">
+        <f t="shared" si="168"/>
         <v>43915</v>
       </c>
-      <c r="R82" s="28">
-        <f t="shared" si="162"/>
+      <c r="R83" s="6">
+        <f t="shared" si="168"/>
         <v>43916</v>
       </c>
-      <c r="S82" s="28">
-        <f t="shared" si="162"/>
+      <c r="S83" s="6">
+        <f t="shared" si="168"/>
         <v>43917</v>
       </c>
-      <c r="T82" s="28">
-        <f t="shared" ref="T82" si="163">S82+1</f>
+      <c r="T83" s="6">
+        <f t="shared" ref="T83" si="169">S83+1</f>
         <v>43918</v>
       </c>
-      <c r="U82" s="28">
-        <f t="shared" ref="U82:V82" si="164">T82+1</f>
+      <c r="U83" s="6">
+        <f t="shared" ref="U83:Y83" si="170">T83+1</f>
         <v>43919</v>
       </c>
-      <c r="V82" s="28">
-        <f t="shared" si="164"/>
+      <c r="V83" s="6">
+        <f t="shared" si="170"/>
         <v>43920</v>
       </c>
+      <c r="W83" s="6">
+        <f t="shared" si="170"/>
+        <v>43921</v>
+      </c>
+      <c r="X83" s="6">
+        <f t="shared" si="170"/>
+        <v>43922</v>
+      </c>
+      <c r="Y83" s="6">
+        <f t="shared" si="170"/>
+        <v>43923</v>
+      </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E84" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F84" s="17">
         <f>J6</f>
         <v>0.22917235727943186</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G84" s="17">
         <f>K6</f>
         <v>0.20511111111111111</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H84" s="17">
         <f>L6</f>
         <v>0.2231237322515213</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I84" s="17">
         <f>M6</f>
         <v>0.1653851952359415</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J84" s="17">
         <f>N6</f>
         <v>0.1816300129366106</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K84" s="17">
         <f>O6</f>
         <v>0.20374425224436171</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L84" s="17">
         <f>P6</f>
         <v>0.14706684856753069</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M84" s="17">
         <f>Q6</f>
         <v>0.14644782746590548</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N84" s="17">
         <f>R6</f>
         <v>0.154229199806349</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O84" s="17">
         <f>S6</f>
         <v>0.18976571394331596</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P84" s="17">
         <f>T6</f>
         <v>0.12318694601128123</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q84" s="17">
         <f>U6</f>
         <v>0.13142319074522466</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R84" s="17">
         <f>V6</f>
         <v>0.1554313795426624</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S84" s="17">
         <f>W6</f>
         <v>0.13064654433201853</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T84" s="17">
         <f>X6</f>
         <v>0.13987986894794321</v>
       </c>
-      <c r="U83" s="1">
+      <c r="U84" s="17">
         <f>Y6</f>
         <v>6.9168330006653359E-2</v>
       </c>
-      <c r="V83" s="1">
+      <c r="V84" s="17">
         <f>Z6</f>
         <v>0.10892617115547369</v>
       </c>
+      <c r="W84" s="17">
+        <f>AA6</f>
+        <v>0.17010101010101011</v>
+      </c>
+      <c r="X84" s="17">
+        <f>AB6</f>
+        <v>9.3251227747084095E-2</v>
+      </c>
+      <c r="Y84" s="17">
+        <f>AC6</f>
+        <v>3.7129972450823841E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="1">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="17">
         <f>K40</f>
         <v>0.2748353096179183</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J85" s="17">
         <f>L40</f>
         <v>0.24266225713104589</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K85" s="17">
         <f>M40</f>
         <v>0.19028609447771125</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L85" s="17">
         <f>N40</f>
         <v>0.53703186137506986</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M85" s="17">
         <f>O40</f>
         <v>0.26893353941267389</v>
       </c>
-      <c r="N84" s="1">
+      <c r="N85" s="17">
         <f>P40</f>
         <v>0.19380955792792148</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O85" s="17">
         <f>Q40</f>
         <v>0.33338109909006236</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P85" s="17">
         <f>R40</f>
         <v>7.4691026329930146E-2</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q85" s="17">
         <f>S40</f>
         <v>0.1336</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R85" s="17">
         <f>T40</f>
         <v>0.21012702893436838</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S85" s="17">
         <f>U40</f>
         <v>0.14973028138212569</v>
       </c>
-      <c r="T84" s="1">
+      <c r="T85" s="17">
         <f>V40</f>
         <v>0.15736748668526504</v>
       </c>
-      <c r="U84" s="1">
+      <c r="U85" s="17">
         <f>W40</f>
         <v>0.15832146378875864</v>
       </c>
-      <c r="V84" s="1">
+      <c r="V85" s="17">
         <f>X40</f>
         <v>0.14883654937570942</v>
       </c>
+      <c r="W85" s="17">
+        <f>Y40</f>
+        <v>8.1614589765756862E-2</v>
+      </c>
+      <c r="X85" s="17">
+        <f>Z40</f>
+        <v>0.1018326450606124</v>
+      </c>
+      <c r="Y85" s="17"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="43"/>
-      <c r="E85" t="s">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="42"/>
+      <c r="E86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="31">
+      <c r="F86" s="65">
         <f>U16</f>
         <v>0.19801812004530012</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G86" s="65">
         <f>V16</f>
         <v>0.16968379259819444</v>
       </c>
-      <c r="H85" s="31">
+      <c r="H86" s="65">
         <f>W16</f>
         <v>0.13064209803208471</v>
       </c>
-      <c r="I85" s="31">
+      <c r="I86" s="65">
         <f>X16</f>
         <v>0.12601858470335955</v>
       </c>
-      <c r="J85" s="31">
+      <c r="J86" s="65">
         <f>Y16</f>
         <v>0.13353012124674665</v>
       </c>
-      <c r="K85" s="31">
+      <c r="K86" s="65">
         <f>Z16</f>
         <v>0.14902136476913169</v>
       </c>
-      <c r="L85" s="31">
+      <c r="L86" s="65">
         <f>AA16</f>
         <v>0.14587547215791397</v>
       </c>
-      <c r="M85" s="31">
+      <c r="M86" s="65">
         <f>AB16</f>
         <v>0.1394483315965207</v>
       </c>
-      <c r="N85" s="31">
+      <c r="N86" s="65">
         <f>AC16</f>
         <v>0.10377393706372018</v>
       </c>
-      <c r="O85" s="31">
+      <c r="O86" s="65">
         <f>AD16</f>
         <v>8.0980080489702053E-2</v>
       </c>
-      <c r="P85" s="31">
+      <c r="P86" s="65">
         <f>AE16</f>
         <v>8.2109280898524886E-2</v>
       </c>
-      <c r="Q85" s="31">
+      <c r="Q86" s="65">
         <f>AF16</f>
         <v>7.5315138198219042E-2</v>
       </c>
-      <c r="R85" s="31">
+      <c r="R86" s="65">
         <f>AG16</f>
         <v>8.2717177963595304E-2</v>
       </c>
-      <c r="S85" s="31">
+      <c r="S86" s="65">
         <f>AH16</f>
         <v>7.4498069258371727E-2</v>
       </c>
-      <c r="T85" s="31">
+      <c r="T86" s="65">
         <f>AI16</f>
         <v>6.855868452374074E-2</v>
       </c>
-      <c r="U85" s="31">
+      <c r="U86" s="65">
         <f>AJ16</f>
         <v>5.6417077601868676E-2</v>
       </c>
-      <c r="V85" s="31">
+      <c r="V86" s="65">
         <f>AK16</f>
         <v>4.1458096612719958E-2</v>
       </c>
+      <c r="W86" s="65">
+        <f>AL16</f>
+        <v>3.9837230560552002E-2</v>
+      </c>
+      <c r="X86" s="65">
+        <f>AM16</f>
+        <v>4.5201905626134305E-2</v>
+      </c>
+      <c r="Y86" s="65">
+        <f>AN16</f>
+        <v>4.2216072494438116E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65">
         <f>J31</f>
         <v>0.29368709972552609</v>
       </c>
-      <c r="J86" s="31">
+      <c r="J87" s="65">
         <f>K31</f>
         <v>0.42751060820367753</v>
       </c>
-      <c r="K86" s="31">
+      <c r="K87" s="65">
         <f>L31</f>
         <v>0.48848154570225416</v>
       </c>
-      <c r="L86" s="31">
+      <c r="L87" s="65">
         <f>M31</f>
         <v>0.45099018139457481</v>
       </c>
-      <c r="M86" s="31">
+      <c r="M87" s="65">
         <f>N31</f>
         <v>0.3552012845509806</v>
       </c>
-      <c r="N86" s="31">
+      <c r="N87" s="65">
         <f>O31</f>
         <v>0.39116452268111035</v>
       </c>
-      <c r="O86" s="31">
+      <c r="O87" s="65">
         <f>P31</f>
-        <v>0.32370118019223748</v>
-      </c>
-      <c r="P86" s="31">
+        <v>0.30037109137364643</v>
+      </c>
+      <c r="P87" s="65">
         <f>Q31</f>
-        <v>0.23100785881704122</v>
-      </c>
-      <c r="Q86" s="31">
+        <v>0.23248578980608642</v>
+      </c>
+      <c r="Q87" s="65">
         <f>R31</f>
-        <v>0.29163166638666443</v>
-      </c>
-      <c r="R86" s="31">
+        <v>0.23203643955209718</v>
+      </c>
+      <c r="R87" s="65">
         <f>S31</f>
-        <v>0.24282452235742982</v>
-      </c>
-      <c r="S86" s="31">
+        <v>0.26264711319243328</v>
+      </c>
+      <c r="S87" s="65">
         <f>T31</f>
-        <v>0.21704497883622495</v>
-      </c>
-      <c r="T86" s="31">
+        <v>0.23218163628821706</v>
+      </c>
+      <c r="T87" s="65">
         <f>U31</f>
-        <v>0.19133201479060968</v>
-      </c>
-      <c r="U86" s="31">
+        <v>0.19909502262443438</v>
+      </c>
+      <c r="U87" s="65">
         <f>V31</f>
-        <v>0.1470814686492469</v>
-      </c>
-      <c r="V86" s="31">
+        <v>0.166657033153049</v>
+      </c>
+      <c r="V87" s="65">
         <f>W31</f>
-        <v>0.11882538017829052</v>
+        <v>0.1373152709359606</v>
+      </c>
+      <c r="W87" s="65">
+        <f>X31</f>
+        <v>0.15802575160714175</v>
+      </c>
+      <c r="X87" s="65">
+        <f>Y31</f>
+        <v>0.14329704108941219</v>
+      </c>
+      <c r="Y87" s="65">
+        <f>Z31</f>
+        <v>0.13574339473647101</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="1">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="17">
         <f>H49</f>
         <v>0.10927390366642703</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I88" s="17">
         <f>I49</f>
         <v>0.26377187297472454</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J88" s="17">
         <f>J49</f>
         <v>0.34666666666666668</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K88" s="17">
         <f>K49</f>
         <v>0.24485910129474486</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L88" s="17">
         <f>L49</f>
         <v>0.21841541755888652</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M88" s="17">
         <f>M49</f>
         <v>0.25985438111975895</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N88" s="17">
         <f>N49</f>
         <v>0.13252291749701076</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O88" s="17">
         <f>O49</f>
         <v>0.17015660742565547</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P88" s="17">
         <f>P49</f>
         <v>0.21458646616541355</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q88" s="17">
         <f>Q49</f>
         <v>0.17976971647889067</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R88" s="17">
         <f>R49</f>
         <v>0.21397838178192885</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S88" s="17">
         <f>S49</f>
         <v>0.26028699861687415</v>
       </c>
-      <c r="T87" s="1">
+      <c r="T88" s="17">
         <f>T49</f>
         <v>0.17216544344605253</v>
       </c>
-      <c r="U87" s="1">
+      <c r="U88" s="17">
         <f>U49</f>
         <v>0.14237228626601908</v>
       </c>
-      <c r="V87" s="1">
+      <c r="V88" s="17">
         <f>V49</f>
         <v>0.13420756070074788</v>
       </c>
+      <c r="W88" s="17">
+        <f>W49</f>
+        <v>0.13585042001625869</v>
+      </c>
+      <c r="X88" s="17">
+        <f>X49</f>
+        <v>0.17192842942345923</v>
+      </c>
+      <c r="Y88" s="17">
+        <f>Y49</f>
+        <v>0.14399131437877452</v>
+      </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="1">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="17">
         <f>K58</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="17">
         <f>L58</f>
         <v>0.21686746987951808</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I89" s="17">
         <f>M58</f>
         <v>0.21618975084321618</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J89" s="17">
         <f>N58</f>
         <v>0.22705314009661837</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K89" s="17">
         <f>O58</f>
         <v>0.25495771361913094</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="17">
         <f>P58</f>
         <v>0.16603729739150641</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M89" s="17">
         <f>Q58</f>
         <v>0.14593194160729411</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N89" s="17">
         <f>R58</f>
         <v>0.29752173913043478</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O89" s="17">
         <f>S58</f>
         <v>0.10876922561404684</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P89" s="17">
         <f>T58</f>
         <v>0.19885762640152316</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q89" s="17">
         <f>U58</f>
         <v>0.20018150192845799</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R89" s="17">
         <f>V58</f>
         <v>0.18017223272421759</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S89" s="17">
         <f>W58</f>
         <v>0.14008329180607959</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T89" s="17">
         <f>X58</f>
         <v>0.12783527685415008</v>
       </c>
-      <c r="U88" s="1">
+      <c r="U89" s="17">
         <f>Y58</f>
         <v>9.0618425423541135E-2</v>
       </c>
-      <c r="V88" s="1">
+      <c r="V89" s="17">
         <f>Z58</f>
         <v>8.1223427882479854E-2</v>
       </c>
+      <c r="W89" s="17">
+        <f>AA58</f>
+        <v>0.10824578907212865</v>
+      </c>
+      <c r="X89" s="17">
+        <f>AB58</f>
+        <v>8.1754345086160335E-2</v>
+      </c>
+      <c r="Y89" s="17">
+        <f>AC58</f>
+        <v>7.932560507558549E-2</v>
+      </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="1">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="17">
         <f>L66</f>
         <v>9.3989611674499141E-3</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G90" s="17">
         <f>M66</f>
         <v>9.0664052928203873E-3</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H90" s="17">
         <f>N66</f>
         <v>1.0199125789218067E-2</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I90" s="17">
         <f>O66</f>
         <v>1.1177884615384616E-2</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J90" s="17">
         <f>P66</f>
         <v>1.8067276833472007E-2</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K90" s="17">
         <f>Q66</f>
         <v>1.0157618213660246E-2</v>
       </c>
-      <c r="L89" s="1">
+      <c r="L90" s="17">
         <f>R66</f>
         <v>1.6990291262135922E-2</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M90" s="17">
         <f>S66</f>
         <v>1.1137629276054098E-2</v>
       </c>
-      <c r="N89" s="1">
+      <c r="N90" s="17">
         <f>T66</f>
         <v>7.1934359896594358E-3</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O90" s="17">
         <f>U66</f>
         <v>8.481196295056356E-3</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P90" s="17">
         <f>V66</f>
         <v>1.1065619121389841E-2</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q90" s="17">
         <f>W66</f>
         <v>0</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R90" s="17">
         <f>X66</f>
         <v>0</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S90" s="17">
         <f>Y66</f>
         <v>0</v>
       </c>
-      <c r="T89" s="1">
+      <c r="T90" s="17">
         <f>Z66</f>
         <v>0</v>
       </c>
-      <c r="U89" s="1">
+      <c r="U90" s="17">
         <f>AA66</f>
         <v>0</v>
       </c>
-      <c r="V89" s="1">
+      <c r="V90" s="17">
         <f>AB66</f>
         <v>0</v>
       </c>
+      <c r="W90" s="17">
+        <f>AC66</f>
+        <v>0</v>
+      </c>
+      <c r="X90" s="17">
+        <f>AD66</f>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="17">
+        <f>AE66</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F92" s="28">
-        <f t="shared" ref="F92:M92" si="165">G92-1</f>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E93" s="4"/>
+      <c r="F93" s="6">
+        <f t="shared" ref="F93:M93" si="171">G93-1</f>
         <v>43904</v>
       </c>
-      <c r="G92" s="28">
-        <f t="shared" si="165"/>
+      <c r="G93" s="6">
+        <f t="shared" si="171"/>
         <v>43905</v>
       </c>
-      <c r="H92" s="28">
-        <f t="shared" si="165"/>
+      <c r="H93" s="6">
+        <f t="shared" si="171"/>
         <v>43906</v>
       </c>
-      <c r="I92" s="28">
-        <f t="shared" si="165"/>
+      <c r="I93" s="6">
+        <f t="shared" si="171"/>
         <v>43907</v>
       </c>
-      <c r="J92" s="28">
-        <f t="shared" si="165"/>
+      <c r="J93" s="6">
+        <f t="shared" si="171"/>
         <v>43908</v>
       </c>
-      <c r="K92" s="28">
-        <f t="shared" si="165"/>
+      <c r="K93" s="6">
+        <f t="shared" si="171"/>
         <v>43909</v>
       </c>
-      <c r="L92" s="28">
-        <f t="shared" si="165"/>
+      <c r="L93" s="6">
+        <f t="shared" si="171"/>
         <v>43910</v>
       </c>
-      <c r="M92" s="28">
-        <f t="shared" si="165"/>
+      <c r="M93" s="6">
+        <f t="shared" si="171"/>
         <v>43911</v>
       </c>
-      <c r="N92" s="28">
+      <c r="N93" s="6">
         <v>43912</v>
       </c>
-      <c r="O92" s="28">
-        <f>N92+1</f>
+      <c r="O93" s="6">
+        <f>N93+1</f>
         <v>43913</v>
       </c>
-      <c r="P92" s="28">
-        <f>O92+1</f>
+      <c r="P93" s="6">
+        <f>O93+1</f>
         <v>43914</v>
       </c>
-      <c r="Q92" s="28">
-        <f>P92+1</f>
+      <c r="Q93" s="6">
+        <f>P93+1</f>
         <v>43915</v>
       </c>
-      <c r="R92" s="28">
-        <f>Q92+1</f>
+      <c r="R93" s="6">
+        <f>Q93+1</f>
         <v>43916</v>
       </c>
-      <c r="S92" s="28">
-        <f>R92+1</f>
+      <c r="S93" s="6">
+        <f>R93+1</f>
         <v>43917</v>
       </c>
-      <c r="T92" s="28">
-        <f>S92+1</f>
+      <c r="T93" s="6">
+        <f>S93+1</f>
         <v>43918</v>
       </c>
-      <c r="U92" s="28">
-        <f>T92+1</f>
+      <c r="U93" s="6">
+        <f>T93+1</f>
         <v>43919</v>
       </c>
-      <c r="V92" s="28">
-        <f>U92+1</f>
+      <c r="V93" s="6">
+        <f>U93+1</f>
         <v>43920</v>
       </c>
+      <c r="W93" s="6">
+        <f>V93+1</f>
+        <v>43921</v>
+      </c>
+      <c r="X93" s="6">
+        <f>W93+1</f>
+        <v>43922</v>
+      </c>
+      <c r="Y93" s="6">
+        <f>X93+1</f>
+        <v>43923</v>
+      </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="43"/>
-      <c r="E93" t="s">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="42"/>
+      <c r="E94" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F94" s="17">
         <f>J9</f>
         <v>8.0817051509769089E-2</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G94" s="17">
         <f>K9</f>
         <v>8.9943342776203972E-2</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H94" s="17">
         <f>L9</f>
         <v>8.2959641255605385E-2</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I94" s="17">
         <f>M9</f>
         <v>7.672073651907059E-2</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J94" s="17">
         <f>N9</f>
         <v>9.1730368311327304E-2</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K94" s="17">
         <f>O9</f>
         <v>0.10161158153509969</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L94" s="17">
         <f>P9</f>
         <v>0.1</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M94" s="17">
         <f>Q9</f>
         <v>0.10363267564078923</v>
       </c>
-      <c r="N93" s="1">
+      <c r="N94" s="17">
         <f>R9</f>
         <v>0.10161314638926579</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O94" s="17">
         <f>S9</f>
         <v>0.11125485122897801</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P94" s="17">
         <f>T9</f>
         <v>0.1204291657543245</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q94" s="17">
         <f>U9</f>
         <v>0.12105502501136881</v>
       </c>
-      <c r="R93" s="1">
-        <f t="shared" ref="Q93:V93" si="166">V9</f>
+      <c r="R94" s="17">
+        <f t="shared" ref="Q94:Y94" si="172">V9</f>
         <v>0.13447510307643515</v>
       </c>
-      <c r="S93" s="1">
-        <f t="shared" si="166"/>
+      <c r="S94" s="17">
+        <f t="shared" si="172"/>
         <v>0.13797634691195795</v>
       </c>
-      <c r="T93" s="1">
-        <f t="shared" si="166"/>
+      <c r="T94" s="17">
+        <f t="shared" si="172"/>
         <v>0.13865420336748757</v>
       </c>
-      <c r="U93" s="1">
-        <f t="shared" si="166"/>
+      <c r="U94" s="17">
+        <f t="shared" si="172"/>
         <v>0.13124496373892022</v>
       </c>
-      <c r="V93" s="1">
-        <f t="shared" si="166"/>
+      <c r="V94" s="17">
+        <f t="shared" si="172"/>
         <v>0.13559322033898305</v>
       </c>
+      <c r="W94" s="17">
+        <f t="shared" si="172"/>
+        <v>0.13961875321998971</v>
+      </c>
+      <c r="X94" s="17">
+        <f t="shared" si="172"/>
+        <v>0.1382953181272509</v>
+      </c>
+      <c r="Y94" s="17">
+        <f t="shared" si="172"/>
+        <v>0.13660356752821259</v>
+      </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="43"/>
-      <c r="E94" t="s">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="42"/>
+      <c r="E95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="1">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="17">
         <f>N43</f>
         <v>1.7868538608806637E-2</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K95" s="17">
         <f>O43</f>
         <v>1.8573237653018153E-2</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L95" s="17">
         <f>P43</f>
         <v>1.370223978919631E-2</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M95" s="17">
         <f>Q43</f>
         <v>1.4055394791236048E-2</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N95" s="17">
         <f>R43</f>
         <v>1.2475049900199601E-2</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O95" s="17">
         <f>S43</f>
         <v>1.2017887087758524E-2</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P95" s="17">
         <f>T43</f>
         <v>1.0364578598054369E-2</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q95" s="17">
         <f>U43</f>
         <v>1.067564662893172E-2</v>
       </c>
-      <c r="R94" s="1">
+      <c r="R95" s="17">
         <f>V43</f>
         <v>1.1883327331652862E-2</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S95" s="17">
         <f>W43</f>
         <v>1.3594841483073616E-2</v>
       </c>
-      <c r="T94" s="1">
+      <c r="T95" s="17">
         <f>X43</f>
         <v>1.6250000000000001E-2</v>
       </c>
-      <c r="U94" s="1">
+      <c r="U95" s="17">
         <f>Y43</f>
         <v>1.7157727593507411E-2</v>
       </c>
-      <c r="V94" s="1"/>
+      <c r="V95" s="17">
+        <f>Z43</f>
+        <v>1.6584050153083538E-2</v>
+      </c>
+      <c r="W95" s="17">
+        <f>AA43</f>
+        <v>1.848212021303576E-2</v>
+      </c>
+      <c r="X95" s="17">
+        <f>AB43</f>
+        <v>2.0050399912347978E-2</v>
+      </c>
+      <c r="Y95" s="17"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F96" s="17">
         <f>U19</f>
         <v>0.19538983050847458</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G96" s="17">
         <f>V19</f>
         <v>0.1972307021369385</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H96" s="17">
         <f>W19</f>
         <v>0.21263178638289487</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I96" s="17">
         <f>X19</f>
         <v>0.20081835686777921</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J96" s="17">
         <f>Y19</f>
         <v>0.19704889829947728</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K96" s="17">
         <f>Z19</f>
         <v>0.19280860702151756</v>
       </c>
-      <c r="L95" s="1">
+      <c r="L96" s="17">
         <f>AA19</f>
         <v>0.19057522333033983</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M96" s="17">
         <f>AB19</f>
         <v>0.19497312805592598</v>
       </c>
-      <c r="N95" s="1">
+      <c r="N96" s="17">
         <f>AC19</f>
         <v>0.19571122230164403</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O96" s="17">
         <f>AD19</f>
         <v>0.19288389513108614</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P96" s="17">
         <f>AE19</f>
         <v>0.19096687480749308</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="Q96" s="17">
         <f>AF19</f>
         <v>0.18284391373217984</v>
       </c>
-      <c r="R95" s="1">
+      <c r="R96" s="17">
         <f>AG19</f>
         <v>0.17364581782607771</v>
       </c>
-      <c r="S95" s="1">
+      <c r="S96" s="17">
         <f>AH19</f>
         <v>0.17048042106834896</v>
       </c>
-      <c r="T95" s="1">
+      <c r="T96" s="17">
         <f>AI19</f>
         <v>0.169484933545267</v>
       </c>
-      <c r="U95" s="1">
+      <c r="U96" s="17">
         <f>AJ19</f>
         <v>0.16861420057252804</v>
       </c>
-      <c r="V95" s="1">
+      <c r="V96" s="17">
         <f>AK19</f>
         <v>0.16755811264022205</v>
       </c>
+      <c r="W96" s="17">
+        <f>AL19</f>
+        <v>0.1670744494931842</v>
+      </c>
+      <c r="X96" s="17">
+        <f>AM19</f>
+        <v>0.16333701684898</v>
+      </c>
+      <c r="Y96" s="17">
+        <f>AN19</f>
+        <v>0.16079455505610188</v>
+      </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17">
         <f>J34</f>
         <v>0.10300429184549356</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J97" s="17">
         <f>K34</f>
         <v>0.10141313383208644</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K97" s="17">
         <f>L34</f>
         <v>0.10763454317897372</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="17">
         <f>M34</f>
         <v>0.11914672216441206</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M97" s="17">
         <f>N34</f>
         <v>7.101218865924748E-2</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N97" s="17">
         <f>O34</f>
         <v>9.4693504117108876E-2</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O97" s="17">
         <f>P34</f>
-        <v>9.6888260254596889E-2</v>
-      </c>
-      <c r="P96" s="1">
+        <v>9.1760961810466765E-2</v>
+      </c>
+      <c r="P97" s="17">
         <f>Q34</f>
-        <v>8.6945751795888038E-2</v>
-      </c>
-      <c r="Q96" s="1">
+        <v>8.4344810502848644E-2</v>
+      </c>
+      <c r="Q97" s="17">
         <f>R34</f>
-        <v>8.7368946580129808E-2</v>
-      </c>
-      <c r="R96" s="1">
+        <v>7.5386919620569148E-2</v>
+      </c>
+      <c r="R97" s="17">
         <f>S34</f>
-        <v>7.4549833696524834E-2</v>
-      </c>
-      <c r="S96" s="1">
+        <v>6.6464044041747911E-2</v>
+      </c>
+      <c r="S97" s="17">
         <f>T34</f>
-        <v>7.2190250507786047E-2</v>
-      </c>
-      <c r="T96" s="1">
+        <v>6.736628300609343E-2</v>
+      </c>
+      <c r="T97" s="17">
         <f>U34</f>
-        <v>6.6674777953522321E-2</v>
-      </c>
-      <c r="U96" s="1">
+        <v>6.2020927120087603E-2</v>
+      </c>
+      <c r="U97" s="17">
         <f>V34</f>
-        <v>5.7769198952157728E-2</v>
-      </c>
-      <c r="V96" s="1">
+        <v>5.7355383499801176E-2</v>
+      </c>
+      <c r="V97" s="17">
         <f>W34</f>
-        <v>5.5123107651527878E-2</v>
+        <v>5.665211615107231E-2</v>
+      </c>
+      <c r="W97" s="17">
+        <f>X34</f>
+        <v>5.8629613654568979E-2</v>
+      </c>
+      <c r="X97" s="17">
+        <f>Y34</f>
+        <v>5.7889856769880191E-2</v>
+      </c>
+      <c r="Y97" s="17">
+        <f>Z34</f>
+        <v>5.7635375308177472E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17">
         <f>K52</f>
         <v>0.2440677966101695</v>
       </c>
-      <c r="L97" s="1">
+      <c r="L98" s="17">
         <f>L52</f>
         <v>0.22180451127819548</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M98" s="17">
         <f>M52</f>
         <v>0.16750539180445723</v>
       </c>
-      <c r="N97" s="1">
+      <c r="N98" s="17">
         <f>N52</f>
         <v>0.18211276733635776</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O98" s="17">
         <f>O52</f>
         <v>0.1717948717948718</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P98" s="17">
         <f>P52</f>
         <v>0.16070068545316071</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q98" s="17">
         <f>Q52</f>
         <v>0.14224533496482106</v>
       </c>
-      <c r="R97" s="1">
+      <c r="R98" s="17">
         <f>R52</f>
         <v>0.14511674617122772</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S98" s="17">
         <f>S52</f>
         <v>0.15125548027102431</v>
       </c>
-      <c r="T97" s="1">
+      <c r="T98" s="17">
         <f>T52</f>
         <v>0.17930670420552525</v>
       </c>
-      <c r="U97" s="1">
+      <c r="U98" s="17">
         <f>U52</f>
         <v>0.18466165413533833</v>
       </c>
-      <c r="V97" s="1">
+      <c r="V98" s="17">
         <f>V52</f>
         <v>0.17432214931286369</v>
       </c>
+      <c r="W98" s="17">
+        <f>W52</f>
+        <v>0.1877426802392696</v>
+      </c>
+      <c r="X98" s="17">
+        <f>X52</f>
+        <v>0.2033195020746888</v>
+      </c>
+      <c r="Y98" s="17">
+        <f>Y52</f>
+        <v>0.20035667741271693</v>
+      </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17">
         <f>K61</f>
         <v>0.23395613322502032</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H99" s="17">
         <f>L61</f>
         <v>0.18230088495575222</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I99" s="17">
         <f>M61</f>
         <v>0.21563460693895475</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J99" s="17">
         <f>N61</f>
         <v>0.19008264462809918</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K99" s="17">
         <f>O61</f>
         <v>0.14659785932721711</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L99" s="17">
         <f>P61</f>
         <v>0.15678297606008448</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M99" s="17">
         <f>Q61</f>
         <v>0.18244406196213425</v>
       </c>
-      <c r="N98" s="1">
+      <c r="N99" s="17">
         <f>R61</f>
         <v>0.19279730170819279</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O99" s="17">
         <f>S61</f>
         <v>0.19520486670245124</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P99" s="17">
         <f>T61</f>
         <v>0.19626713327500728</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q99" s="17">
         <f>U61</f>
         <v>0.19950037762156508</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R99" s="17">
         <f>V61</f>
         <v>0.20372676996661851</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S99" s="17">
         <f>W61</f>
         <v>0.21121739130434783</v>
       </c>
-      <c r="T98" s="1">
+      <c r="T99" s="17">
         <f>X61</f>
         <v>0.19066447743189358</v>
       </c>
-      <c r="U98" s="1">
+      <c r="U99" s="17">
         <f>Y61</f>
         <v>0.19728610716552328</v>
       </c>
-      <c r="V98" s="1">
+      <c r="V99" s="17">
         <f>Z61</f>
         <v>0.18503113262245077</v>
       </c>
+      <c r="W99" s="17">
+        <f>AA61</f>
+        <v>0.17200168031926066</v>
+      </c>
+      <c r="X99" s="17">
+        <f>AB61</f>
+        <v>0.16111981205951448</v>
+      </c>
+      <c r="Y99" s="17">
+        <f>AC61</f>
+        <v>0.1561529215254687</v>
+      </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E99" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="1">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="17">
         <f>L69</f>
         <v>1.0159848279599025E-2</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G100" s="17">
         <f>M69</f>
         <v>9.982696659124185E-3</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H100" s="17">
         <f>N69</f>
         <v>1.0444874274661509E-2</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I100" s="17">
         <f>O69</f>
         <v>1.067479984750286E-2</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J100" s="17">
         <f>P69</f>
         <v>1.1404937962150646E-2</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K100" s="17">
         <f>Q69</f>
         <v>1.1625030917635419E-2</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="17">
         <f>R69</f>
         <v>1.2496937025238911E-2</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M100" s="17">
         <f>S69</f>
         <v>1.2627489072365225E-2</v>
       </c>
-      <c r="N99" s="1">
+      <c r="N100" s="17">
         <f>T69</f>
         <v>1.3341346153846153E-2</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O100" s="17">
         <f>U69</f>
         <v>1.4263639605372637E-2</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P100" s="17">
         <f>V69</f>
         <v>1.4711033274956218E-2</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q100" s="17">
         <f>W69</f>
         <v>0</v>
       </c>
-      <c r="R99" s="1">
+      <c r="R100" s="17">
         <f>X69</f>
         <v>0</v>
       </c>
-      <c r="S99" s="1">
+      <c r="S100" s="17">
         <f>Y69</f>
         <v>0</v>
       </c>
-      <c r="T99" s="1">
+      <c r="T100" s="17">
         <f>Z69</f>
         <v>0</v>
       </c>
-      <c r="U99" s="1">
+      <c r="U100" s="17">
         <f>AA69</f>
         <v>0</v>
       </c>
-      <c r="V99" s="1">
+      <c r="V100" s="17">
         <f>AB69</f>
         <v>0</v>
       </c>
+      <c r="W100" s="17">
+        <f>AC69</f>
+        <v>0</v>
+      </c>
+      <c r="X100" s="17">
+        <f>AD69</f>
+        <v>0</v>
+      </c>
+      <c r="Y100" s="17">
+        <f>AE69</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -12167,7 +13082,7 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -12180,398 +13095,451 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="F103" s="28">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="6">
         <v>43910</v>
       </c>
-      <c r="G103" s="28">
-        <f>F103+1</f>
+      <c r="G104" s="6">
+        <f>F104+1</f>
         <v>43911</v>
       </c>
-      <c r="H103" s="28">
-        <f t="shared" ref="H103:R103" si="167">G103+1</f>
+      <c r="H104" s="6">
+        <f t="shared" ref="H104:S104" si="173">G104+1</f>
         <v>43912</v>
       </c>
-      <c r="I103" s="28">
-        <f t="shared" si="167"/>
+      <c r="I104" s="6">
+        <f t="shared" si="173"/>
         <v>43913</v>
       </c>
-      <c r="J103" s="28">
-        <f t="shared" si="167"/>
+      <c r="J104" s="6">
+        <f t="shared" si="173"/>
         <v>43914</v>
       </c>
-      <c r="K103" s="28">
-        <f t="shared" si="167"/>
+      <c r="K104" s="6">
+        <f t="shared" si="173"/>
         <v>43915</v>
       </c>
-      <c r="L103" s="28">
-        <f t="shared" si="167"/>
+      <c r="L104" s="6">
+        <f t="shared" si="173"/>
         <v>43916</v>
       </c>
-      <c r="M103" s="28">
-        <f t="shared" si="167"/>
+      <c r="M104" s="6">
+        <f t="shared" si="173"/>
         <v>43917</v>
       </c>
-      <c r="N103" s="28">
-        <f t="shared" si="167"/>
+      <c r="N104" s="6">
+        <f t="shared" si="173"/>
         <v>43918</v>
       </c>
-      <c r="O103" s="28">
-        <f t="shared" si="167"/>
+      <c r="O104" s="6">
+        <f t="shared" si="173"/>
         <v>43919</v>
       </c>
-      <c r="P103" s="28">
-        <f t="shared" si="167"/>
+      <c r="P104" s="6">
+        <f t="shared" si="173"/>
         <v>43920</v>
       </c>
-      <c r="Q103" s="28">
-        <f t="shared" si="167"/>
+      <c r="Q104" s="6">
+        <f t="shared" si="173"/>
         <v>43921</v>
       </c>
-      <c r="R103" s="28">
-        <f t="shared" si="167"/>
+      <c r="R104" s="6">
+        <f t="shared" si="173"/>
         <v>43922</v>
       </c>
+      <c r="S104" s="6">
+        <f t="shared" si="173"/>
+        <v>43923</v>
+      </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="E104" t="s">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="E105" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F105" s="17">
         <f>P10</f>
         <v>0.10805500982318271</v>
       </c>
-      <c r="G104" s="1">
-        <f t="shared" ref="G104:Q104" si="168">Q10</f>
+      <c r="G105" s="17">
+        <f t="shared" ref="G105:S105" si="174">Q10</f>
         <v>0.10026917900403769</v>
       </c>
-      <c r="H104" s="1">
-        <f t="shared" si="168"/>
+      <c r="H105" s="17">
+        <f t="shared" si="174"/>
         <v>9.3498452012383895E-2</v>
       </c>
-      <c r="I104" s="1">
-        <f t="shared" si="168"/>
+      <c r="I105" s="17">
+        <f t="shared" si="174"/>
         <v>0.11048234977095123</v>
       </c>
-      <c r="J104" s="1">
-        <f t="shared" si="168"/>
+      <c r="J105" s="17">
+        <f t="shared" si="174"/>
         <v>0.12333791838606144</v>
       </c>
-      <c r="K104" s="1">
-        <f t="shared" si="168"/>
+      <c r="K105" s="17">
+        <f t="shared" si="174"/>
         <v>0.13457599344530929</v>
       </c>
-      <c r="L104" s="1">
-        <f t="shared" si="168"/>
+      <c r="L105" s="17">
+        <f t="shared" si="174"/>
         <v>0.15699530516431925</v>
       </c>
-      <c r="M104" s="1">
-        <f t="shared" si="168"/>
+      <c r="M105" s="17">
+        <f t="shared" si="174"/>
         <v>0.15718299964875307</v>
       </c>
-      <c r="N104" s="1">
-        <f t="shared" si="168"/>
+      <c r="N105" s="17">
+        <f t="shared" si="174"/>
         <v>0.13569850911098841</v>
       </c>
-      <c r="O104" s="1">
-        <f t="shared" si="168"/>
+      <c r="O105" s="17">
+        <f t="shared" si="174"/>
         <v>0.11602703047303328</v>
       </c>
-      <c r="P104" s="1">
-        <f t="shared" si="168"/>
+      <c r="P105" s="17">
+        <f t="shared" si="174"/>
         <v>0.12043539325842696</v>
       </c>
-      <c r="Q104" s="1">
-        <f t="shared" si="168"/>
+      <c r="Q105" s="17">
+        <f t="shared" si="174"/>
         <v>0.13001397999784922</v>
       </c>
+      <c r="R105" s="17">
+        <f t="shared" si="174"/>
+        <v>0.13374601388107296</v>
+      </c>
+      <c r="S105" s="17">
+        <f t="shared" si="174"/>
+        <v>0.11983471074380166</v>
+      </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F106" s="17">
         <f>P44</f>
         <v>7.9486395597676545E-3</v>
       </c>
-      <c r="G105" s="1">
-        <f t="shared" ref="G105:Q105" si="169">Q44</f>
+      <c r="G106" s="17">
+        <f t="shared" ref="G106:S106" si="175">Q44</f>
         <v>1.0979961570134504E-2</v>
       </c>
-      <c r="H105" s="1">
-        <f t="shared" si="169"/>
+      <c r="H106" s="17">
+        <f t="shared" si="175"/>
         <v>9.2234454031538231E-3</v>
       </c>
-      <c r="I105" s="1">
-        <f t="shared" si="169"/>
+      <c r="I106" s="17">
+        <f t="shared" si="175"/>
         <v>5.5185846453497805E-3</v>
       </c>
-      <c r="J105" s="1">
-        <f t="shared" si="169"/>
+      <c r="J106" s="17">
+        <f t="shared" si="175"/>
         <v>5.7898049087476396E-3</v>
       </c>
-      <c r="K105" s="1">
-        <f t="shared" si="169"/>
+      <c r="K106" s="17">
+        <f t="shared" si="175"/>
         <v>7.784557121817799E-3</v>
       </c>
-      <c r="L105" s="1">
-        <f t="shared" si="169"/>
+      <c r="L106" s="17">
+        <f t="shared" si="175"/>
         <v>1.4715543292602811E-2</v>
       </c>
-      <c r="M105" s="1">
-        <f t="shared" si="169"/>
+      <c r="M106" s="17">
+        <f t="shared" si="175"/>
         <v>2.3001820287936455E-2</v>
       </c>
-      <c r="N105" s="1">
-        <f t="shared" si="169"/>
+      <c r="N106" s="17">
+        <f t="shared" si="175"/>
         <v>2.9284525790349417E-2</v>
       </c>
-      <c r="O105" s="1">
-        <f t="shared" si="169"/>
+      <c r="O106" s="17">
+        <f t="shared" si="175"/>
         <v>2.1640607296623614E-2</v>
       </c>
-      <c r="P105" s="1">
-        <f t="shared" si="169"/>
+      <c r="P106" s="17">
+        <f t="shared" si="175"/>
         <v>1.7498267498267498E-2</v>
       </c>
-      <c r="Q105" s="1">
-        <f t="shared" si="169"/>
+      <c r="Q106" s="17">
+        <f t="shared" si="175"/>
         <v>1.8647007805724199E-2</v>
       </c>
+      <c r="R106" s="17">
+        <f t="shared" si="175"/>
+        <v>2.3094532722865609E-2</v>
+      </c>
+      <c r="S106" s="17"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E106" t="s">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="17">
         <f>AA20</f>
         <v>0.15870873987959311</v>
       </c>
-      <c r="G106" s="1">
-        <f t="shared" ref="G106:Q106" si="170">AB20</f>
+      <c r="G107" s="17">
+        <f t="shared" ref="G107:S107" si="176">AB20</f>
         <v>0.17897286821705427</v>
       </c>
-      <c r="H106" s="1">
-        <f t="shared" si="170"/>
+      <c r="H107" s="17">
+        <f t="shared" si="176"/>
         <v>0.20011595323219636</v>
       </c>
-      <c r="I106" s="1">
-        <f t="shared" si="170"/>
+      <c r="I107" s="17">
+        <f t="shared" si="176"/>
         <v>0.18648550063833669</v>
       </c>
-      <c r="J106" s="1">
-        <f t="shared" si="170"/>
+      <c r="J107" s="17">
+        <f t="shared" si="176"/>
         <v>0.15281501340482573</v>
       </c>
-      <c r="K106" s="1">
-        <f t="shared" si="170"/>
+      <c r="K107" s="17">
+        <f t="shared" si="176"/>
         <v>0.13064776023203351</v>
       </c>
-      <c r="L106" s="1">
-        <f t="shared" si="170"/>
+      <c r="L107" s="17">
+        <f t="shared" si="176"/>
         <v>0.11687657430730479</v>
       </c>
-      <c r="M106" s="1">
-        <f t="shared" si="170"/>
+      <c r="M107" s="17">
+        <f t="shared" si="176"/>
         <v>0.12782411754957743</v>
       </c>
-      <c r="N106" s="1">
-        <f t="shared" si="170"/>
+      <c r="N107" s="17">
+        <f t="shared" si="176"/>
         <v>0.14905950550100555</v>
       </c>
-      <c r="O106" s="1">
-        <f t="shared" si="170"/>
+      <c r="O107" s="17">
+        <f t="shared" si="176"/>
         <v>0.1675855878958841</v>
       </c>
-      <c r="P106" s="1">
-        <f t="shared" si="170"/>
+      <c r="P107" s="17">
+        <f t="shared" si="176"/>
         <v>0.16113588667366213</v>
       </c>
-      <c r="Q106" s="1">
-        <f t="shared" si="170"/>
-        <v>9.438959788104985E-2</v>
+      <c r="Q107" s="17">
+        <f t="shared" si="176"/>
+        <v>0.14477486154587046</v>
+      </c>
+      <c r="R107" s="17">
+        <f t="shared" si="176"/>
+        <v>0.13684271151298738</v>
+      </c>
+      <c r="S107" s="17">
+        <f t="shared" si="176"/>
+        <v>0.12849718013933428</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F108" s="17">
         <f>M35</f>
         <v>5.1730844029560484E-2</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G108" s="17">
         <f>N35</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H108" s="17">
         <f>O35</f>
         <v>6.4809855382967324E-2</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I108" s="17">
         <f>P35</f>
-        <v>7.4186046511627912E-2</v>
-      </c>
-      <c r="J107" s="1">
+        <v>6.7441860465116285E-2</v>
+      </c>
+      <c r="J108" s="17">
         <f>Q35</f>
-        <v>5.6761705466910804E-2</v>
-      </c>
-      <c r="K107" s="1">
+        <v>5.4015171331415118E-2</v>
+      </c>
+      <c r="K108" s="17">
         <f>R35</f>
-        <v>5.3980648446783228E-2</v>
-      </c>
-      <c r="L107" s="1">
+        <v>4.1758614836190797E-2</v>
+      </c>
+      <c r="L108" s="17">
         <f>S35</f>
-        <v>4.8335261601748294E-2</v>
-      </c>
-      <c r="M107" s="1">
+        <v>4.1136392852551745E-2</v>
+      </c>
+      <c r="M108" s="17">
         <f>T35</f>
-        <v>4.8135008150349982E-2</v>
-      </c>
-      <c r="N107" s="1">
+        <v>4.3676287275865373E-2</v>
+      </c>
+      <c r="N108" s="17">
         <f>U35</f>
-        <v>4.3788343558282206E-2</v>
-      </c>
-      <c r="O107" s="1">
+        <v>4.475960968672224E-2</v>
+      </c>
+      <c r="O108" s="17">
         <f>V35</f>
-        <v>4.0549116536958481E-2</v>
-      </c>
-      <c r="P107" s="1">
+        <v>4.449721247160851E-2</v>
+      </c>
+      <c r="P108" s="17">
         <f>W35</f>
-        <v>3.4335591166914481E-2</v>
-      </c>
-      <c r="Q107" s="1"/>
+        <v>4.3476903870162294E-2</v>
+      </c>
+      <c r="Q108" s="17">
+        <f>X35</f>
+        <v>4.5059288537549404E-2</v>
+      </c>
+      <c r="R108" s="17">
+        <f>Y35</f>
+        <v>4.7467240772558844E-2</v>
+      </c>
+      <c r="S108" s="17">
+        <f>Z35</f>
+        <v>5.0472512413461706E-2</v>
+      </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E108" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="1">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="17">
         <f>L53</f>
         <v>8.4112149532710276E-2</v>
       </c>
-      <c r="G108" s="1">
-        <f t="shared" ref="G108:Q108" si="171">M53</f>
+      <c r="G109" s="17">
+        <f t="shared" ref="G109:S109" si="177">M53</f>
         <v>0.13641133263378805</v>
       </c>
-      <c r="H108" s="1">
-        <f t="shared" si="171"/>
+      <c r="H109" s="17">
+        <f t="shared" si="177"/>
         <v>0.1189236111111111</v>
       </c>
-      <c r="I108" s="1">
-        <f t="shared" si="171"/>
+      <c r="I109" s="17">
+        <f t="shared" si="177"/>
         <v>0.12793522267206478</v>
       </c>
-      <c r="J108" s="1">
-        <f t="shared" si="171"/>
+      <c r="J109" s="17">
+        <f t="shared" si="177"/>
         <v>0.10950173812282735</v>
       </c>
-      <c r="K108" s="1">
-        <f t="shared" si="171"/>
+      <c r="K109" s="17">
+        <f t="shared" si="177"/>
         <v>9.0506640432857846E-2</v>
       </c>
-      <c r="L108" s="1">
-        <f t="shared" si="171"/>
+      <c r="L109" s="17">
+        <f t="shared" si="177"/>
         <v>0.10158862876254181</v>
       </c>
-      <c r="M108" s="1">
-        <f t="shared" si="171"/>
+      <c r="M109" s="17">
+        <f t="shared" si="177"/>
         <v>0.13960231980115989</v>
       </c>
-      <c r="N108" s="1">
-        <f t="shared" si="171"/>
+      <c r="N109" s="17">
+        <f t="shared" si="177"/>
         <v>0.20772403449568805</v>
       </c>
-      <c r="O108" s="1">
-        <f t="shared" si="171"/>
+      <c r="O109" s="17">
+        <f t="shared" si="177"/>
         <v>0.21248774109186008</v>
       </c>
-      <c r="P108" s="1">
-        <f t="shared" si="171"/>
+      <c r="P109" s="17">
+        <f t="shared" si="177"/>
         <v>0.1687467498699948</v>
       </c>
-      <c r="Q108" s="1">
-        <f t="shared" si="171"/>
+      <c r="Q109" s="17">
+        <f t="shared" si="177"/>
         <v>0.156567710451403</v>
       </c>
+      <c r="R109" s="17">
+        <f t="shared" si="177"/>
+        <v>0.17286988618886495</v>
+      </c>
+      <c r="S109" s="17">
+        <f t="shared" si="177"/>
+        <v>0.20013227513227513</v>
+      </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E109" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="1">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="17">
         <f>P62</f>
         <v>0.11595189471295667</v>
       </c>
-      <c r="G109" s="1">
-        <f t="shared" ref="G109:Q109" si="172">Q62</f>
+      <c r="G110" s="17">
+        <f t="shared" ref="G110:S110" si="178">Q62</f>
         <v>0.19701944935589796</v>
       </c>
-      <c r="H109" s="1">
-        <f t="shared" si="172"/>
+      <c r="H110" s="17">
+        <f t="shared" si="178"/>
         <v>0.20994359724253187</v>
       </c>
-      <c r="I109" s="1">
-        <f t="shared" si="172"/>
+      <c r="I110" s="17">
+        <f t="shared" si="178"/>
         <v>0.19146519552166152</v>
       </c>
-      <c r="J109" s="1">
-        <f t="shared" si="172"/>
+      <c r="J110" s="17">
+        <f t="shared" si="178"/>
         <v>0.16379955123410619</v>
       </c>
-      <c r="K109" s="1">
-        <f t="shared" si="172"/>
+      <c r="K110" s="17">
+        <f t="shared" si="178"/>
         <v>0.1868885640391319</v>
       </c>
-      <c r="L109" s="1">
-        <f t="shared" si="172"/>
+      <c r="L110" s="17">
+        <f t="shared" si="178"/>
         <v>0.20540715208961655</v>
       </c>
-      <c r="M109" s="1">
-        <f t="shared" si="172"/>
+      <c r="M110" s="17">
+        <f t="shared" si="178"/>
         <v>0.17149643705463183</v>
       </c>
-      <c r="N109" s="1">
-        <f t="shared" si="172"/>
+      <c r="N110" s="17">
+        <f t="shared" si="178"/>
         <v>0.17329850975572283</v>
       </c>
-      <c r="O109" s="1">
-        <f t="shared" si="172"/>
+      <c r="O110" s="17">
+        <f t="shared" si="178"/>
         <v>0.14631951526786249</v>
       </c>
-      <c r="P109" s="1">
-        <f t="shared" si="172"/>
+      <c r="P110" s="17">
+        <f t="shared" si="178"/>
         <v>0.13969719142229978</v>
       </c>
-      <c r="Q109" s="1">
-        <f t="shared" si="172"/>
+      <c r="Q110" s="17">
+        <f t="shared" si="178"/>
         <v>0.10818650158015498</v>
       </c>
+      <c r="R110" s="17">
+        <f t="shared" si="178"/>
+        <v>0.1035260352603526</v>
+      </c>
+      <c r="S110" s="17">
+        <f t="shared" si="178"/>
+        <v>0.10808507184024678</v>
+      </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -12584,7 +13552,7 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -12636,150 +13604,165 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
     </row>
-    <row r="117" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="34"/>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="43"/>
-      <c r="C120" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="46"/>
+    <row r="118" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="32"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C121" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="45"/>
-      <c r="E121" s="46"/>
+      <c r="A121" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="42"/>
+      <c r="C121" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="44"/>
+      <c r="E121" s="45"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C122" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="46"/>
+      <c r="C122" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="44"/>
+      <c r="E122" s="45"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C123" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="44"/>
+      <c r="E123" s="45"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="43"/>
-      <c r="C140" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D140" s="45"/>
-      <c r="E140" s="46"/>
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C141" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D141" s="45"/>
-      <c r="E141" s="46"/>
+      <c r="A141" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="42"/>
+      <c r="C141" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="44"/>
+      <c r="E141" s="45"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D142" s="45"/>
-      <c r="E142" s="46"/>
+      <c r="C142" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" s="44"/>
+      <c r="E142" s="45"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B156" s="47"/>
-      <c r="C156" s="47"/>
-      <c r="D156" s="47"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="44"/>
+      <c r="E143" s="45"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="43"/>
-      <c r="C159" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D159" s="45"/>
-      <c r="E159" s="46"/>
+    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="46"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C160" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D160" s="45"/>
-      <c r="E160" s="46"/>
+      <c r="A160" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="42"/>
+      <c r="C160" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="44"/>
+      <c r="E160" s="45"/>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="45"/>
-      <c r="E161" s="46"/>
+      <c r="C161" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="44"/>
+      <c r="E161" s="45"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B181" s="43"/>
-      <c r="C181" s="43"/>
-      <c r="D181" s="43"/>
-      <c r="E181" s="43"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="43"/>
-      <c r="H181" s="43"/>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="44"/>
+      <c r="E162" s="45"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B182" s="42"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="AM13:AY13"/>
+    <mergeCell ref="C79:O79"/>
     <mergeCell ref="A55:AL55"/>
     <mergeCell ref="A46:AL46"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="E80:S80"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="E81:S81"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="A3:AL3"/>
     <mergeCell ref="A13:AL13"/>
     <mergeCell ref="A28:AL28"/>
     <mergeCell ref="A37:AL37"/>
-    <mergeCell ref="A181:H181"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="A182:H182"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A141:B141"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A160:B160"/>
     <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:E159"/>
     <mergeCell ref="C72:P72"/>
     <mergeCell ref="C77:N77"/>
     <mergeCell ref="C73:P73"/>
@@ -12787,13 +13770,13 @@
     <mergeCell ref="C75:O75"/>
     <mergeCell ref="C76:O76"/>
     <mergeCell ref="C78:P78"/>
-    <mergeCell ref="C120:E120"/>
     <mergeCell ref="C121:E121"/>
     <mergeCell ref="C122:E122"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A121:B121"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" xr:uid="{6A759FAA-1F7E-4263-A026-A3B3496C8246}"/>
@@ -12803,9 +13786,10 @@
     <hyperlink ref="C76" r:id="rId5" xr:uid="{F46AA968-7146-41D2-BE82-088D3ED739D6}"/>
     <hyperlink ref="C77" r:id="rId6" xr:uid="{F9989416-D394-489A-BA04-31AB732995D1}"/>
     <hyperlink ref="C78" r:id="rId7" xr:uid="{FEC9F565-FA79-43BD-8D39-1E7E588DE49B}"/>
+    <hyperlink ref="C79" r:id="rId8" xr:uid="{C80786D6-1E31-4A40-90F1-96C891CF7E53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>